--- a/rapid7.xlsx
+++ b/rapid7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D36F3-D07A-47A0-9DD7-66946C06B0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DD074A-1FAB-45EA-973C-273EB01F6D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="1215" windowWidth="18555" windowHeight="19155" activeTab="1" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
+    <workbookView xWindow="19410" yWindow="1215" windowWidth="18555" windowHeight="19155" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Rapid7 Inc</t>
   </si>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">fy </t>
   </si>
   <si>
-    <t># in millions</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -253,6 +250,15 @@
   </si>
   <si>
     <t>income (expense)</t>
+  </si>
+  <si>
+    <t>net loss</t>
+  </si>
+  <si>
+    <t># in thou</t>
+  </si>
+  <si>
+    <t>adjusted EBITDA</t>
   </si>
 </sst>
 </file>
@@ -326,7 +332,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5349B9F-7FC2-42E4-AED4-1E861F7949C0}">
   <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +681,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="24" x14ac:dyDescent="0.4">
@@ -702,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>62.7</v>
+        <v>62734</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -717,197 +723,214 @@
       </c>
       <c r="K5" s="4">
         <f>K4*K3</f>
-        <v>2398.902</v>
+        <v>2400202.84</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
+      <c r="K6">
+        <f>236975+205671</f>
+        <v>442646</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
+      <c r="K7">
+        <v>578613</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>6</v>
       </c>
+      <c r="K8" s="4">
+        <f>K5+K7-K6-34</f>
+        <v>2536135.84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="9">
+        <f>K8/Sheet2!G26</f>
+        <v>20.023020819352443</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +940,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6320-FE13-4ACB-86E1-0D668F5D5E2C}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,60 +955,77 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C2" s="5">
         <f>B2+1</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:F2" si="0">C2+1</f>
-        <v>2022</v>
+        <f t="shared" ref="D2:H2" si="0">C2+1</f>
+        <v>2020</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>10000</v>
+        <v>9022</v>
       </c>
       <c r="D3">
+        <v>9736</v>
+      </c>
+      <c r="F3">
         <v>10929</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>11526</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>338714</v>
+      </c>
+      <c r="D4">
+        <v>432946</v>
+      </c>
+      <c r="F4">
+        <v>714231</v>
+      </c>
+      <c r="G4">
+        <v>805670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>51</v>
-      </c>
-      <c r="D4">
-        <v>714231</v>
-      </c>
-      <c r="E4">
-        <v>805670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
       </c>
       <c r="B5" t="e">
         <f>B4/B3</f>
@@ -989,175 +1033,282 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:E5" si="1">C4/C3</f>
-        <v>0</v>
+        <v>37.543116825537574</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
+        <v>44.468570254724732</v>
+      </c>
+      <c r="E5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="E5:G5" si="2">F4/F3</f>
         <v>65.351907768322818</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
+      <c r="G5">
+        <f t="shared" si="2"/>
         <v>69.900225576956444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>210794</v>
+      </c>
+      <c r="C8">
+        <v>297897</v>
+      </c>
+      <c r="D8">
+        <v>382922</v>
+      </c>
+      <c r="E8">
+        <v>500843</v>
+      </c>
+      <c r="F8">
+        <v>647535</v>
+      </c>
+      <c r="G8">
+        <v>740168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="C8">
-        <v>500843</v>
-      </c>
-      <c r="D8">
-        <v>647535</v>
-      </c>
-      <c r="E8">
-        <v>740168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>33297</v>
+      </c>
+      <c r="C9">
+        <v>29050</v>
+      </c>
+      <c r="D9">
+        <v>28564</v>
+      </c>
+      <c r="E9">
+        <v>34561</v>
+      </c>
+      <c r="F9">
+        <v>37548</v>
+      </c>
+      <c r="G9">
+        <v>37539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C9">
-        <v>34561</v>
-      </c>
-      <c r="D9">
-        <v>37548</v>
-      </c>
-      <c r="E9">
-        <v>37539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5">
+        <f>SUM(B8:B9)</f>
+        <v>244091</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:D10" si="3">SUM(C8:C9)</f>
+        <v>326947</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="3"/>
+        <v>411486</v>
+      </c>
+      <c r="E10" s="5">
+        <f>SUM(E8:E9)</f>
+        <v>535404</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:G10" si="4">SUM(F8:F9)</f>
+        <v>685083</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="4"/>
+        <v>777707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <f>SUM(C8:C9)</f>
-        <v>535404</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" ref="D10:E10" si="2">SUM(D8:D9)</f>
-        <v>685083</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="2"/>
-        <v>777707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="7">
+        <v>-47488</v>
+      </c>
+      <c r="C11" s="7">
+        <v>-68179</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-96864</v>
+      </c>
+      <c r="E11" s="7">
+        <v>-140773</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-182212</v>
+      </c>
+      <c r="G11" s="7">
+        <v>-202904</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="7">
-        <v>-140773</v>
-      </c>
-      <c r="D11" s="7">
-        <v>-182212</v>
-      </c>
-      <c r="E11" s="7">
-        <v>-202904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="7">
+        <v>-23595</v>
+      </c>
+      <c r="C12" s="7">
+        <v>-22967</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-24653</v>
+      </c>
+      <c r="E12" s="7">
+        <v>-28175</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-32137</v>
+      </c>
+      <c r="G12" s="7">
+        <v>-28837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="7">
-        <v>-28175</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-32137</v>
-      </c>
-      <c r="E12" s="7">
-        <v>-28837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="8">
+        <f>SUM(B11:B12)</f>
+        <v>-71083</v>
+      </c>
       <c r="C13" s="8">
-        <f>SUM(C11:C12)</f>
+        <f t="shared" ref="C13:D13" si="5">SUM(C11:C12)</f>
+        <v>-91146</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="5"/>
+        <v>-121517</v>
+      </c>
+      <c r="E13" s="8">
+        <f>SUM(E11:E12)</f>
         <v>-168948</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" ref="D13:E13" si="3">SUM(D11:D12)</f>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13:G13" si="6">SUM(F11:F12)</f>
         <v>-214349</v>
       </c>
-      <c r="E13" s="8">
-        <f t="shared" si="3"/>
+      <c r="G13" s="8">
+        <f t="shared" si="6"/>
         <v>-231741</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="8">
+        <f>B10+B13</f>
+        <v>173008</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" ref="C14:D14" si="7">C10+C13</f>
+        <v>235801</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="7"/>
+        <v>289969</v>
+      </c>
+      <c r="E14" s="8">
+        <f>E10+E13</f>
+        <v>366456</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:G14" si="8">F10+F13</f>
+        <v>470734</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="8"/>
+        <v>545966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8">
-        <f>C10+C13</f>
-        <v>366456</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" ref="D14:E14" si="4">D10+D13</f>
-        <v>470734</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="4"/>
-        <v>545966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="7">
+        <v>-67743</v>
+      </c>
+      <c r="C15" s="7">
+        <v>-79364</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-108568</v>
+      </c>
+      <c r="E15" s="7">
+        <v>-160779</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-189970</v>
+      </c>
+      <c r="G15" s="7">
+        <v>-176776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>-160779</v>
-      </c>
-      <c r="D15" s="7">
-        <v>-189970</v>
-      </c>
-      <c r="E15" s="7">
-        <v>-176776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="7">
+        <v>-123310</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-157722</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-195981</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-247453</v>
+      </c>
+      <c r="F16" s="7">
+        <v>-307409</v>
+      </c>
+      <c r="G16" s="7">
+        <v>-312636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="7">
-        <v>-247453</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-307409</v>
-      </c>
-      <c r="E16" s="7">
-        <v>-312636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="7">
+        <v>-34993</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-44710</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-59519</v>
+      </c>
+      <c r="E17" s="7">
+        <v>-78289</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-84969</v>
+      </c>
+      <c r="G17" s="7">
+        <v>-84276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="7">
-        <v>-78289</v>
-      </c>
-      <c r="D17" s="7">
-        <v>-84969</v>
-      </c>
-      <c r="E17" s="7">
-        <v>-84276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>66</v>
+      <c r="B18" s="7">
+        <v>0</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1166,12 +1317,21 @@
         <v>0</v>
       </c>
       <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <v>-30784</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>67</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1180,175 +1340,339 @@
         <v>0</v>
       </c>
       <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
         <v>-22227</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="7">
+        <f>SUM(B15:B19)</f>
+        <v>-226046</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:D20" si="9">SUM(C15:C17)</f>
+        <v>-281796</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="9"/>
+        <v>-364068</v>
+      </c>
+      <c r="E20" s="7">
+        <f>SUM(E15:E19)</f>
+        <v>-486521</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" ref="F20:G20" si="10">SUM(F15:F19)</f>
+        <v>-582348</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="10"/>
+        <v>-626699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="7">
-        <f>SUM(C15:C19)</f>
-        <v>-486521</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" ref="D20:E20" si="5">SUM(D15:D19)</f>
-        <v>-582348</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="5"/>
-        <v>-626699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="7">
-        <f>C14+C20</f>
+      <c r="B21" s="8">
+        <f>B14+B20</f>
+        <v>-53038</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:D21" si="11">C14+C20</f>
+        <v>-45995</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="11"/>
+        <v>-74099</v>
+      </c>
+      <c r="E21" s="8">
+        <f>E14+E20</f>
         <v>-120065</v>
       </c>
-      <c r="D21" s="7">
-        <f t="shared" ref="D21:E21" si="6">D14+D20</f>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:G21" si="12">F14+F20</f>
         <v>-111614</v>
       </c>
-      <c r="E21" s="7">
-        <f t="shared" si="6"/>
+      <c r="G21" s="8">
+        <f t="shared" si="12"/>
         <v>-80733</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>71</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="7">
+        <f>3229-4934-336</f>
+        <v>-2041</v>
       </c>
       <c r="C22" s="7">
+        <f>6014-13389-433</f>
+        <v>-7808</v>
+      </c>
+      <c r="D22" s="7">
+        <f>1454-24137-81</f>
+        <v>-22764</v>
+      </c>
+      <c r="E22" s="7">
         <f>365-14292-1921</f>
         <v>-15848</v>
       </c>
-      <c r="D22">
+      <c r="F22" s="7">
         <f>1813-10982-1522</f>
         <v>-10691</v>
       </c>
-      <c r="E22">
+      <c r="G22" s="7">
         <f>10177-64700-14522</f>
         <v>-69045</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7">
-        <f>C22+C21</f>
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="8">
+        <f>B22+B21</f>
+        <v>-55079</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" ref="C23:D23" si="13">C22+C21</f>
+        <v>-53803</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="13"/>
+        <v>-96863</v>
+      </c>
+      <c r="E23" s="8">
+        <f>E22+E21</f>
         <v>-135913</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" ref="D23:E23" si="7">D22+D21</f>
+      <c r="F23" s="8">
+        <f t="shared" ref="F23:G23" si="14">F22+F21</f>
         <v>-122305</v>
       </c>
-      <c r="E23" s="7">
-        <f t="shared" si="7"/>
+      <c r="G23" s="8">
+        <f t="shared" si="14"/>
         <v>-149778</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26">
+        <v>-13428</v>
+      </c>
+      <c r="C26">
+        <v>12453</v>
+      </c>
+      <c r="D26">
+        <v>15525</v>
+      </c>
+      <c r="E26">
+        <v>23795</v>
+      </c>
+      <c r="F26">
+        <v>49441</v>
+      </c>
+      <c r="G26">
+        <v>126661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <f>6066-12813-3265</f>
+        <v>-10012</v>
+      </c>
+      <c r="C27">
+        <f>-1420-29428-6087</f>
+        <v>-36935</v>
+      </c>
+      <c r="D27">
+        <f>-4887-13802-6130</f>
+        <v>-24819</v>
+      </c>
+      <c r="E27">
+        <v>35053</v>
+      </c>
+      <c r="F27">
+        <v>40677</v>
+      </c>
+      <c r="G27">
+        <v>84034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="6">
+        <f>C10/B10-1</f>
+        <v>0.33944717339025199</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" ref="D34:E34" si="15">D10/C10-1</f>
+        <v>0.25857096104261545</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="15"/>
+        <v>0.30114754815473677</v>
+      </c>
+      <c r="F34" s="6">
+        <f>F10/E10-1</f>
+        <v>0.27956272272900473</v>
+      </c>
+      <c r="G34" s="6">
+        <f>G10/F10-1</f>
+        <v>0.13520113621269259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="6">
+        <f>(B8+B11)/B8</f>
+        <v>0.77471844549655111</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" ref="C35:D35" si="16">(C8+C11)/C8</f>
+        <v>0.77113230411853761</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="16"/>
+        <v>0.74703986712698667</v>
+      </c>
+      <c r="E35" s="6">
+        <f>(E8+E11)/E8</f>
+        <v>0.71892788758153747</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" ref="F35:G35" si="17">(F8+F11)/F8</f>
+        <v>0.71860671623927663</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="17"/>
+        <v>0.72586764085991284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="6">
+        <f>(B9+B12)/B9</f>
+        <v>0.29137760158572845</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" ref="C36:D36" si="18">(C9+C12)/C9</f>
+        <v>0.20939759036144578</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="18"/>
+        <v>0.13692059935583251</v>
+      </c>
+      <c r="E36" s="6">
+        <f>(E9+E12)/E9</f>
+        <v>0.18477474610109662</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:G36" si="19">(F9+F12)/F9</f>
+        <v>0.14410887397464578</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="19"/>
+        <v>0.23181224859479474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="6">
+        <f>B14/B10</f>
+        <v>0.70878483844140094</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" ref="C37:D37" si="20">C14/C10</f>
+        <v>0.72122087066099394</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="20"/>
+        <v>0.70468740127246132</v>
+      </c>
+      <c r="E37" s="6">
+        <f>E14/E10</f>
+        <v>0.68444763206849402</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" ref="F37:G37" si="21">F14/F10</f>
+        <v>0.68711966287296578</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="21"/>
+        <v>0.70202016954971469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="6">
+        <f>C21/B21-1</f>
+        <v>-0.13279158339303898</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" ref="D38:E38" si="22">D21/C21-1</f>
+        <v>0.61102293727579093</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="22"/>
+        <v>0.62033225819511739</v>
+      </c>
+      <c r="F38" s="6">
+        <f>F21/E21-1</f>
+        <v>-7.0386873776704273E-2</v>
+      </c>
+      <c r="G38" s="6">
+        <f>G21/F21-1</f>
+        <v>-0.27667676097980543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="C25">
-        <v>35053</v>
-      </c>
-      <c r="D25">
-        <v>40677</v>
-      </c>
-      <c r="E25">
-        <v>84034</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="6">
-        <f>D10/C10-1</f>
-        <v>0.27956272272900473</v>
-      </c>
-      <c r="E32" s="6">
-        <f>E10/D10-1</f>
-        <v>0.13520113621269259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="6">
-        <f>(C8+C11)/C8</f>
-        <v>0.71892788758153747</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" ref="D33:E33" si="8">(D8+D11)/D8</f>
-        <v>0.71860671623927663</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="8"/>
-        <v>0.72586764085991284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="6">
-        <f>(C9+C12)/C9</f>
-        <v>0.18477474610109662</v>
-      </c>
-      <c r="D34" s="6">
-        <f t="shared" ref="D34:E34" si="9">(D9+D12)/D9</f>
-        <v>0.14410887397464578</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="9"/>
-        <v>0.23181224859479474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="6">
-        <f>C14/C10</f>
-        <v>0.68444763206849402</v>
-      </c>
-      <c r="D35" s="6">
-        <f t="shared" ref="D35:E35" si="10">D14/D10</f>
-        <v>0.68711966287296578</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" si="10"/>
-        <v>0.70202016954971469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="6">
-        <f>D21/C21-1</f>
-        <v>-7.0386873776704273E-2</v>
-      </c>
-      <c r="E36" s="6">
-        <f>E21/D21-1</f>
-        <v>-0.27667676097980543</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="6">
-        <f>D25/C25-1</f>
+      <c r="C39" s="6">
+        <f>C27/B27-1</f>
+        <v>2.6890731122652816</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" ref="D39:E39" si="23">D27/C27-1</f>
+        <v>-0.32803573845945577</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="23"/>
+        <v>-2.4123453805552195</v>
+      </c>
+      <c r="F39" s="6">
+        <f>F27/E27-1</f>
         <v>0.16044275810914899</v>
       </c>
-      <c r="E37" s="6">
-        <f>E25/D25-1</f>
+      <c r="G39" s="6">
+        <f>G27/F27-1</f>
         <v>1.0658848980996631</v>
       </c>
     </row>

--- a/rapid7.xlsx
+++ b/rapid7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DD074A-1FAB-45EA-973C-273EB01F6D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F77F8-E74D-4E22-AE8F-278FD30B013C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="1215" windowWidth="18555" windowHeight="19155" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Rapid7 Inc</t>
   </si>
@@ -198,9 +198,6 @@
     <t>product revenue</t>
   </si>
   <si>
-    <t>prof serv revenue</t>
-  </si>
-  <si>
     <t>total revenue</t>
   </si>
   <si>
@@ -259,6 +256,30 @@
   </si>
   <si>
     <t>adjusted EBITDA</t>
+  </si>
+  <si>
+    <t>ev/fcf</t>
+  </si>
+  <si>
+    <t>q224</t>
+  </si>
+  <si>
+    <t>q223</t>
+  </si>
+  <si>
+    <t>q124</t>
+  </si>
+  <si>
+    <t>q123</t>
+  </si>
+  <si>
+    <t>prod serv revenue</t>
+  </si>
+  <si>
+    <t>q423</t>
+  </si>
+  <si>
+    <t>q323</t>
   </si>
 </sst>
 </file>
@@ -309,10 +330,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -322,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -333,6 +363,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5349B9F-7FC2-42E4-AED4-1E861F7949C0}">
   <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +717,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="24" x14ac:dyDescent="0.4">
@@ -753,9 +789,12 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
       <c r="K9" s="9">
-        <f>K8/Sheet2!G26</f>
-        <v>20.023020819352443</v>
+        <f>K8/Sheet2!G27</f>
+        <v>30.179877668562725</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -940,14 +979,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6320-FE13-4ACB-86E1-0D668F5D5E2C}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,12 +994,12 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>2018</v>
       </c>
@@ -980,7 +1019,7 @@
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="10">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
@@ -988,8 +1027,26 @@
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1002,11 +1059,23 @@
       <c r="F3">
         <v>10929</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>11526</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>11034</v>
+      </c>
+      <c r="K3">
+        <v>11287</v>
+      </c>
+      <c r="N3">
+        <v>11462</v>
+      </c>
+      <c r="O3">
+        <v>11484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1019,11 +1088,23 @@
       <c r="F4">
         <v>714231</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="11">
         <v>805670</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>727853</v>
+      </c>
+      <c r="K4">
+        <v>750850</v>
+      </c>
+      <c r="N4">
+        <v>807196</v>
+      </c>
+      <c r="O4">
+        <v>815630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1044,15 +1125,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="E5:G5" si="2">F4/F3</f>
+        <f t="shared" ref="F5:G5" si="2">F4/F3</f>
         <v>65.351907768322818</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="11">
         <f t="shared" si="2"/>
         <v>69.900225576956444</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" ref="J5" si="3">J4/J3</f>
+        <v>65.964564074678265</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5" si="4">K4/K3</f>
+        <v>66.523434039160094</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5" si="5">N4/N3</f>
+        <v>70.423660792182872</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="N5:O5" si="6">O4/O3</f>
+        <v>71.023162661093693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1071,13 +1174,25 @@
       <c r="F8">
         <v>647535</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="11">
         <v>740168</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>173772</v>
+      </c>
+      <c r="K8">
+        <v>181701</v>
+      </c>
+      <c r="N8">
+        <v>196918</v>
+      </c>
+      <c r="O8">
+        <v>200067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>33297</v>
@@ -1094,24 +1209,36 @@
       <c r="F9">
         <v>37548</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="11">
         <v>37539</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>9402</v>
+      </c>
+      <c r="K9">
+        <v>8721</v>
+      </c>
+      <c r="N9">
+        <v>8183</v>
+      </c>
+      <c r="O9">
+        <v>7924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5">
         <f>SUM(B8:B9)</f>
         <v>244091</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" ref="C10:D10" si="3">SUM(C8:C9)</f>
+        <f t="shared" ref="C10:D10" si="7">SUM(C8:C9)</f>
         <v>326947</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>411486</v>
       </c>
       <c r="E10" s="5">
@@ -1119,17 +1246,37 @@
         <v>535404</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10:G10" si="4">SUM(F8:F9)</f>
+        <f t="shared" ref="F10:G10" si="8">SUM(F8:F9)</f>
         <v>685083</v>
       </c>
-      <c r="G10" s="5">
-        <f t="shared" si="4"/>
+      <c r="G10" s="10">
+        <f t="shared" si="8"/>
         <v>777707</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="15">
+        <f>(833000+837000)/2</f>
+        <v>835000</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" ref="J10" si="9">SUM(J8:J9)</f>
+        <v>183174</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" ref="K10" si="10">SUM(K8:K9)</f>
+        <v>190422</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" ref="N10" si="11">SUM(N8:N9)</f>
+        <v>205101</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" ref="N10:O10" si="12">SUM(O8:O9)</f>
+        <v>207991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="7">
         <v>-47488</v>
@@ -1146,16 +1293,26 @@
       <c r="F11" s="7">
         <v>-182212</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="12">
         <v>-202904</v>
       </c>
-      <c r="H11" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="7"/>
+      <c r="J11" s="7">
+        <v>-48188</v>
+      </c>
+      <c r="K11" s="7">
+        <v>-51148</v>
+      </c>
+      <c r="N11" s="7">
+        <v>-54655</v>
+      </c>
+      <c r="O11" s="7">
+        <v>-54982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="7">
         <v>-23595</v>
@@ -1172,24 +1329,36 @@
       <c r="F12" s="7">
         <v>-32137</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="12">
         <v>-28837</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="7">
+        <v>-7811</v>
+      </c>
+      <c r="K12" s="7">
+        <v>-7016</v>
+      </c>
+      <c r="N12" s="7">
+        <v>-6248</v>
+      </c>
+      <c r="O12" s="7">
+        <v>-5866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8">
         <f>SUM(B11:B12)</f>
         <v>-71083</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:D13" si="5">SUM(C11:C12)</f>
+        <f t="shared" ref="C13:D13" si="13">SUM(C11:C12)</f>
         <v>-91146</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>-121517</v>
       </c>
       <c r="E13" s="8">
@@ -1197,28 +1366,44 @@
         <v>-168948</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" ref="F13:G13" si="6">SUM(F11:F12)</f>
+        <f t="shared" ref="F13:G13" si="14">SUM(F11:F12)</f>
         <v>-214349</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="6"/>
+      <c r="G13" s="13">
+        <f t="shared" si="14"/>
         <v>-231741</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="8">
+        <f t="shared" ref="J13" si="15">SUM(J11:J12)</f>
+        <v>-55999</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" ref="K13" si="16">SUM(K11:K12)</f>
+        <v>-58164</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" ref="N13" si="17">SUM(N11:N12)</f>
+        <v>-60903</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" ref="N13:O13" si="18">SUM(O11:O12)</f>
+        <v>-60848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8">
         <f>B10+B13</f>
         <v>173008</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:D14" si="7">C10+C13</f>
+        <f t="shared" ref="C14:D14" si="19">C10+C13</f>
         <v>235801</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>289969</v>
       </c>
       <c r="E14" s="8">
@@ -1226,17 +1411,33 @@
         <v>366456</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:G14" si="8">F10+F13</f>
+        <f t="shared" ref="F14:G14" si="20">F10+F13</f>
         <v>470734</v>
       </c>
-      <c r="G14" s="8">
-        <f t="shared" si="8"/>
+      <c r="G14" s="13">
+        <f t="shared" si="20"/>
         <v>545966</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="8">
+        <f t="shared" ref="J14" si="21">J10+J13</f>
+        <v>127175</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" ref="K14" si="22">K10+K13</f>
+        <v>132258</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" ref="N14" si="23">N10+N13</f>
+        <v>144198</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" ref="N14:O14" si="24">O10+O13</f>
+        <v>147143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7">
         <v>-67743</v>
@@ -1253,13 +1454,25 @@
       <c r="F15" s="7">
         <v>-189970</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="12">
         <v>-176776</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="7">
+        <v>-46346</v>
+      </c>
+      <c r="K15" s="7">
+        <v>-50762</v>
+      </c>
+      <c r="N15" s="7">
+        <v>-40990</v>
+      </c>
+      <c r="O15" s="7">
+        <v>-40056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="7">
         <v>-123310</v>
@@ -1276,13 +1489,25 @@
       <c r="F16" s="7">
         <v>-307409</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="12">
         <v>-312636</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16" s="7">
+        <v>-80587</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-83036</v>
+      </c>
+      <c r="N16" s="7">
+        <v>-72805</v>
+      </c>
+      <c r="O16" s="7">
+        <v>-77795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="7">
         <v>-34993</v>
@@ -1299,13 +1524,25 @@
       <c r="F17" s="7">
         <v>-84969</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="12">
         <v>-84276</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17" s="7">
+        <v>-24207</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-22888</v>
+      </c>
+      <c r="N17" s="7">
+        <v>-19835</v>
+      </c>
+      <c r="O17" s="7">
+        <v>-22412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -1322,13 +1559,25 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="12">
         <v>-30784</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-27231</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -1345,24 +1594,36 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="12">
         <v>-22227</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7">
         <f>SUM(B15:B19)</f>
         <v>-226046</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" ref="C20:D20" si="9">SUM(C15:C17)</f>
+        <f t="shared" ref="C20:D20" si="25">SUM(C15:C17)</f>
         <v>-281796</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>-364068</v>
       </c>
       <c r="E20" s="7">
@@ -1370,28 +1631,44 @@
         <v>-486521</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" ref="F20:G20" si="10">SUM(F15:F19)</f>
+        <f t="shared" ref="F20:G20" si="26">SUM(F15:F19)</f>
         <v>-582348</v>
       </c>
-      <c r="G20" s="7">
-        <f t="shared" si="10"/>
+      <c r="G20" s="12">
+        <f t="shared" si="26"/>
         <v>-626699</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="7">
+        <f t="shared" ref="J20" si="27">SUM(J15:J19)</f>
+        <v>-151140</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" ref="K20" si="28">SUM(K15:K19)</f>
+        <v>-183917</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" ref="N20" si="29">SUM(N15:N19)</f>
+        <v>-133630</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" ref="N20:O20" si="30">SUM(O15:O19)</f>
+        <v>-140263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="8">
         <f>B14+B20</f>
         <v>-53038</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" ref="C21:D21" si="11">C14+C20</f>
+        <f t="shared" ref="C21:D21" si="31">C14+C20</f>
         <v>-45995</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-74099</v>
       </c>
       <c r="E21" s="8">
@@ -1399,17 +1676,37 @@
         <v>-120065</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:G21" si="12">F14+F20</f>
+        <f t="shared" ref="F21:G21" si="32">F14+F20</f>
         <v>-111614</v>
       </c>
-      <c r="G21" s="8">
-        <f t="shared" si="12"/>
+      <c r="G21" s="13">
+        <f t="shared" si="32"/>
         <v>-80733</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="5">
+        <f>(152000+156000)/2</f>
+        <v>154000</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" ref="J21" si="33">J14+J20</f>
+        <v>-23965</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" ref="K21" si="34">K14+K20</f>
+        <v>-51659</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" ref="N21" si="35">N14+N20</f>
+        <v>10568</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" ref="N21:O21" si="36">O14+O20</f>
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7">
         <f>3229-4934-336</f>
@@ -1431,25 +1728,41 @@
         <f>1813-10982-1522</f>
         <v>-10691</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="12">
         <f>10177-64700-14522</f>
         <v>-69045</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="7">
+        <f>1668-2717-307-594</f>
+        <v>-1950</v>
+      </c>
+      <c r="K22" s="7">
+        <f>1787-2773-13268-869</f>
+        <v>-15123</v>
+      </c>
+      <c r="N22" s="7">
+        <f>4720-2670-1435-8925</f>
+        <v>-8310</v>
+      </c>
+      <c r="O22" s="7">
+        <f>5221-2673-695-538</f>
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="8">
         <f>B22+B21</f>
         <v>-55079</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:D23" si="13">C22+C21</f>
+        <f t="shared" ref="C23:D23" si="37">C22+C21</f>
         <v>-53803</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>-96863</v>
       </c>
       <c r="E23" s="8">
@@ -1457,17 +1770,39 @@
         <v>-135913</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" ref="F23:G23" si="14">F22+F21</f>
+        <f t="shared" ref="F23:G23" si="38">F22+F21</f>
         <v>-122305</v>
       </c>
-      <c r="G23" s="8">
-        <f t="shared" si="14"/>
+      <c r="G23" s="13">
+        <f t="shared" si="38"/>
         <v>-149778</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23" s="8">
+        <f t="shared" ref="J23" si="39">J22+J21</f>
+        <v>-25915</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" ref="K23" si="40">K22+K21</f>
+        <v>-66782</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" ref="N23" si="41">N22+N21</f>
+        <v>2258</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" ref="N23:O23" si="42">O22+O21</f>
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>-13428</v>
@@ -1484,11 +1819,11 @@
       <c r="F26">
         <v>49441</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="11">
         <v>126661</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1510,11 +1845,45 @@
       <c r="F27">
         <v>40677</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="11">
         <v>84034</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f>(150000+160000)/2</f>
+        <v>155000</v>
+      </c>
+      <c r="J27">
+        <v>-1219</v>
+      </c>
+      <c r="K27">
+        <v>25581</v>
+      </c>
+      <c r="N27">
+        <v>27534</v>
+      </c>
+      <c r="O27">
+        <v>29205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1523,36 +1892,36 @@
         <v>0.33944717339025199</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" ref="D34:E34" si="15">D10/C10-1</f>
+        <f t="shared" ref="D34:E34" si="43">D10/C10-1</f>
         <v>0.25857096104261545</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>0.30114754815473677</v>
       </c>
       <c r="F34" s="6">
         <f>F10/E10-1</f>
         <v>0.27956272272900473</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="14">
         <f>G10/F10-1</f>
         <v>0.13520113621269259</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="6">
         <f>(B8+B11)/B8</f>
         <v>0.77471844549655111</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:D35" si="16">(C8+C11)/C8</f>
+        <f t="shared" ref="C35:D35" si="44">(C8+C11)/C8</f>
         <v>0.77113230411853761</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>0.74703986712698667</v>
       </c>
       <c r="E35" s="6">
@@ -1560,28 +1929,52 @@
         <v>0.71892788758153747</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" ref="F35:G35" si="17">(F8+F11)/F8</f>
+        <f t="shared" ref="F35:G35" si="45">(F8+F11)/F8</f>
         <v>0.71860671623927663</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="17"/>
+      <c r="G35" s="14">
+        <f t="shared" si="45"/>
         <v>0.72586764085991284</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J35" s="6">
+        <f>(J8+J11)/J8</f>
+        <v>0.72269410491908936</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" ref="K35:O35" si="46">(K8+K11)/K8</f>
+        <v>0.71850457619936048</v>
+      </c>
+      <c r="L35" s="6" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="6" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="6">
+        <f t="shared" si="46"/>
+        <v>0.7224479224855016</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="46"/>
+        <v>0.72518206400855711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="6">
         <f>(B9+B12)/B9</f>
         <v>0.29137760158572845</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" ref="C36:D36" si="18">(C9+C12)/C9</f>
+        <f t="shared" ref="C36:D36" si="47">(C9+C12)/C9</f>
         <v>0.20939759036144578</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>0.13692059935583251</v>
       </c>
       <c r="E36" s="6">
@@ -1589,28 +1982,28 @@
         <v>0.18477474610109662</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" ref="F36:G36" si="19">(F9+F12)/F9</f>
+        <f t="shared" ref="F36:G36" si="48">(F9+F12)/F9</f>
         <v>0.14410887397464578</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="19"/>
+      <c r="G36" s="14">
+        <f t="shared" si="48"/>
         <v>0.23181224859479474</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="6">
         <f>B14/B10</f>
         <v>0.70878483844140094</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ref="C37:D37" si="20">C14/C10</f>
+        <f t="shared" ref="C37:D37" si="49">C14/C10</f>
         <v>0.72122087066099394</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="49"/>
         <v>0.70468740127246132</v>
       </c>
       <c r="E37" s="6">
@@ -1618,40 +2011,40 @@
         <v>0.68444763206849402</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" ref="F37:G37" si="21">F14/F10</f>
+        <f t="shared" ref="F37:G37" si="50">F14/F10</f>
         <v>0.68711966287296578</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="21"/>
+      <c r="G37" s="14">
+        <f t="shared" si="50"/>
         <v>0.70202016954971469</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="6">
         <f>C21/B21-1</f>
         <v>-0.13279158339303898</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" ref="D38:E38" si="22">D21/C21-1</f>
+        <f t="shared" ref="D38:E38" si="51">D21/C21-1</f>
         <v>0.61102293727579093</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0.62033225819511739</v>
       </c>
       <c r="F38" s="6">
         <f>F21/E21-1</f>
         <v>-7.0386873776704273E-2</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="14">
         <f>G21/F21-1</f>
         <v>-0.27667676097980543</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1660,18 +2053,18 @@
         <v>2.6890731122652816</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" ref="D39:E39" si="23">D27/C27-1</f>
+        <f t="shared" ref="D39:E39" si="52">D27/C27-1</f>
         <v>-0.32803573845945577</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>-2.4123453805552195</v>
       </c>
       <c r="F39" s="6">
         <f>F27/E27-1</f>
         <v>0.16044275810914899</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="14">
         <f>G27/F27-1</f>
         <v>1.0658848980996631</v>
       </c>

--- a/rapid7.xlsx
+++ b/rapid7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F77F8-E74D-4E22-AE8F-278FD30B013C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48E9AD-AF2D-4F73-BFDE-68CD2F59729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
+    <workbookView xWindow="19485" yWindow="90" windowWidth="18690" windowHeight="20850" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Rapid7 Inc</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>q323</t>
+  </si>
+  <si>
+    <t>q324</t>
   </si>
 </sst>
 </file>
@@ -322,12 +325,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -352,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -368,7 +377,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5349B9F-7FC2-42E4-AED4-1E861F7949C0}">
-  <dimension ref="B1:K53"/>
+  <dimension ref="B1:L53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,17 +726,17 @@
     <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -733,7 +744,7 @@
         <v>38.26</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -744,10 +755,10 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>62734</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>63207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -759,50 +770,51 @@
       </c>
       <c r="K5" s="4">
         <f>K4*K3</f>
-        <v>2400202.84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>2418299.8199999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6">
-        <f>236975+205671</f>
-        <v>442646</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <f>222571+221122</f>
+        <v>443693</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>578613</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>573629</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="4">
         <f>K5+K7-K6-34</f>
-        <v>2536135.84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>2548201.8199999998</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>73</v>
       </c>
       <c r="K9" s="9">
         <f>K8/Sheet2!G27</f>
-        <v>30.179877668562725</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <v>30.323462170074016</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -979,14 +991,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6320-FE13-4ACB-86E1-0D668F5D5E2C}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,12 +1006,12 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>2018</v>
       </c>
@@ -1023,7 +1035,7 @@
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="17">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
@@ -1045,8 +1057,11 @@
       <c r="O2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1068,14 +1083,20 @@
       <c r="K3">
         <v>11287</v>
       </c>
+      <c r="L3">
+        <v>11412</v>
+      </c>
       <c r="N3">
         <v>11462</v>
       </c>
       <c r="O3">
         <v>11484</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>11619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1091,20 +1112,30 @@
       <c r="G4" s="11">
         <v>805670</v>
       </c>
+      <c r="H4" s="5">
+        <f>G4*1.04</f>
+        <v>837896.8</v>
+      </c>
       <c r="J4">
         <v>727853</v>
       </c>
       <c r="K4">
         <v>750850</v>
       </c>
+      <c r="L4">
+        <v>776760</v>
+      </c>
       <c r="N4">
         <v>807196</v>
       </c>
       <c r="O4">
         <v>815630</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>823104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1137,25 +1168,37 @@
         <v>65.964564074678265</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5" si="4">K4/K3</f>
+        <f t="shared" ref="K5:M5" si="4">K4/K3</f>
         <v>66.523434039160094</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>68.065194532071501</v>
+      </c>
+      <c r="M5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5" si="5">N4/N3</f>
         <v>70.423660792182872</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="N5:O5" si="6">O4/O3</f>
+        <f t="shared" ref="O5:P5" si="6">O4/O3</f>
         <v>71.023162661093693</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>70.841208365608054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1183,14 +1226,20 @@
       <c r="K8">
         <v>181701</v>
       </c>
+      <c r="L8">
+        <v>189876</v>
+      </c>
       <c r="N8">
         <v>196918</v>
       </c>
       <c r="O8">
         <v>200067</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>205593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -1218,14 +1267,20 @@
       <c r="K9">
         <v>8721</v>
       </c>
+      <c r="L9">
+        <v>8967</v>
+      </c>
       <c r="N9">
         <v>8183</v>
       </c>
       <c r="O9">
         <v>7924</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>9061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -1253,7 +1308,7 @@
         <f t="shared" si="8"/>
         <v>777707</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="5">
         <f>(833000+837000)/2</f>
         <v>835000</v>
       </c>
@@ -1262,19 +1317,27 @@
         <v>183174</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" ref="K10" si="10">SUM(K8:K9)</f>
+        <f t="shared" ref="K10:L10" si="10">SUM(K8:K9)</f>
         <v>190422</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="10"/>
+        <v>198843</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" ref="N10" si="11">SUM(N8:N9)</f>
         <v>205101</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" ref="N10:O10" si="12">SUM(O8:O9)</f>
+        <f t="shared" ref="O10:P10" si="12">SUM(O8:O9)</f>
         <v>207991</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="5">
+        <f t="shared" si="12"/>
+        <v>214654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1303,14 +1366,20 @@
       <c r="K11" s="7">
         <v>-51148</v>
       </c>
+      <c r="L11" s="7">
+        <v>-51261</v>
+      </c>
       <c r="N11" s="7">
         <v>-54655</v>
       </c>
       <c r="O11" s="7">
         <v>-54982</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="7">
+        <v>-56653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1338,14 +1407,20 @@
       <c r="K12" s="7">
         <v>-7016</v>
       </c>
+      <c r="L12" s="7">
+        <v>-6569</v>
+      </c>
       <c r="N12" s="7">
         <v>-6248</v>
       </c>
       <c r="O12" s="7">
         <v>-5866</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="7">
+        <v>-6364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -1378,19 +1453,27 @@
         <v>-55999</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ref="K13" si="16">SUM(K11:K12)</f>
+        <f t="shared" ref="K13:L13" si="16">SUM(K11:K12)</f>
         <v>-58164</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="16"/>
+        <v>-57830</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ref="N13" si="17">SUM(N11:N12)</f>
         <v>-60903</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" ref="N13:O13" si="18">SUM(O11:O12)</f>
+        <f t="shared" ref="O13:P13" si="18">SUM(O11:O12)</f>
         <v>-60848</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="8">
+        <f t="shared" si="18"/>
+        <v>-63017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -1423,19 +1506,27 @@
         <v>127175</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ref="K14" si="22">K10+K13</f>
+        <f t="shared" ref="K14:L14" si="22">K10+K13</f>
         <v>132258</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="22"/>
+        <v>141013</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ref="N14" si="23">N10+N13</f>
         <v>144198</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" ref="N14:O14" si="24">O10+O13</f>
+        <f t="shared" ref="O14:P14" si="24">O10+O13</f>
         <v>147143</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="8">
+        <f t="shared" si="24"/>
+        <v>151637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1463,14 +1554,20 @@
       <c r="K15" s="7">
         <v>-50762</v>
       </c>
+      <c r="L15" s="7">
+        <v>-39940</v>
+      </c>
       <c r="N15" s="7">
         <v>-40990</v>
       </c>
       <c r="O15" s="7">
         <v>-40056</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="7">
+        <v>-44565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1498,14 +1595,20 @@
       <c r="K16" s="7">
         <v>-83036</v>
       </c>
+      <c r="L16" s="7">
+        <v>-75699</v>
+      </c>
       <c r="N16" s="7">
         <v>-72805</v>
       </c>
       <c r="O16" s="7">
         <v>-77795</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="7">
+        <v>-74521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1533,14 +1636,20 @@
       <c r="K17" s="7">
         <v>-22888</v>
       </c>
+      <c r="L17" s="7">
+        <v>-17866</v>
+      </c>
       <c r="N17" s="7">
         <v>-19835</v>
       </c>
       <c r="O17" s="7">
         <v>-22412</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="7">
+        <v>-18590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1568,14 +1677,20 @@
       <c r="K18" s="7">
         <v>-27231</v>
       </c>
+      <c r="L18" s="7">
+        <v>-3553</v>
+      </c>
       <c r="N18" s="7">
         <v>0</v>
       </c>
       <c r="O18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1603,14 +1718,20 @@
       <c r="K19" s="7">
         <v>0</v>
       </c>
+      <c r="L19" s="7">
+        <v>-19996</v>
+      </c>
       <c r="N19" s="7">
         <v>0</v>
       </c>
       <c r="O19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1643,19 +1764,27 @@
         <v>-151140</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" ref="K20" si="28">SUM(K15:K19)</f>
+        <f t="shared" ref="K20:L20" si="28">SUM(K15:K19)</f>
         <v>-183917</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="28"/>
+        <v>-157054</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" ref="N20" si="29">SUM(N15:N19)</f>
         <v>-133630</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" ref="N20:O20" si="30">SUM(O15:O19)</f>
+        <f t="shared" ref="O20:P20" si="30">SUM(O15:O19)</f>
         <v>-140263</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="7">
+        <f t="shared" si="30"/>
+        <v>-137676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
@@ -1692,19 +1821,27 @@
         <v>-23965</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ref="K21" si="34">K14+K20</f>
+        <f t="shared" ref="K21:L21" si="34">K14+K20</f>
         <v>-51659</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="34"/>
+        <v>-16041</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" ref="N21" si="35">N14+N20</f>
         <v>10568</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" ref="N21:O21" si="36">O14+O20</f>
+        <f t="shared" ref="O21:P21" si="36">O14+O20</f>
         <v>6880</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="8">
+        <f t="shared" si="36"/>
+        <v>13961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1740,6 +1877,10 @@
         <f>1787-2773-13268-869</f>
         <v>-15123</v>
       </c>
+      <c r="L22" s="7">
+        <f>2545-56515-4518-2082</f>
+        <v>-60570</v>
+      </c>
       <c r="N22" s="7">
         <f>4720-2670-1435-8925</f>
         <v>-8310</v>
@@ -1748,8 +1889,12 @@
         <f>5221-2673-695-538</f>
         <v>1315</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="7">
+        <f>5571-2837+2811-2952</f>
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -1782,25 +1927,33 @@
         <v>-25915</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ref="K23" si="40">K22+K21</f>
+        <f t="shared" ref="K23:L23" si="40">K22+K21</f>
         <v>-66782</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="40"/>
+        <v>-76611</v>
       </c>
       <c r="N23" s="8">
         <f t="shared" ref="N23" si="41">N22+N21</f>
         <v>2258</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" ref="N23:O23" si="42">O22+O21</f>
+        <f t="shared" ref="O23:P23" si="42">O22+O21</f>
         <v>8195</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="8">
+        <f t="shared" si="42"/>
+        <v>16554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1823,7 +1976,7 @@
         <v>126661</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1848,9 +2001,9 @@
       <c r="G27" s="11">
         <v>84034</v>
       </c>
-      <c r="H27">
-        <f>(150000+160000)/2</f>
-        <v>155000</v>
+      <c r="H27" s="5">
+        <f>(145000+155000)/2</f>
+        <v>150000</v>
       </c>
       <c r="J27">
         <v>-1219</v>
@@ -1858,32 +2011,38 @@
       <c r="K27">
         <v>25581</v>
       </c>
+      <c r="L27">
+        <v>-582</v>
+      </c>
       <c r="N27">
         <v>27534</v>
       </c>
       <c r="O27">
         <v>29205</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>38502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1907,8 +2066,44 @@
         <f>G10/F10-1</f>
         <v>0.13520113621269259</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H34" s="15">
+        <f>H10/G10-1</f>
+        <v>7.3669132462482745E-2</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" ref="I34:P34" si="44">I10/H10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J34" s="15" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="44"/>
+        <v>3.9568934455763483E-2</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="44"/>
+        <v>4.4222831395531959E-2</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="44"/>
+        <v>-1</v>
+      </c>
+      <c r="N34" s="15" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="15">
+        <f t="shared" si="44"/>
+        <v>1.4090618768314078E-2</v>
+      </c>
+      <c r="P34" s="15">
+        <f t="shared" si="44"/>
+        <v>3.2035039977691415E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -1917,11 +2112,11 @@
         <v>0.77471844549655111</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:D35" si="44">(C8+C11)/C8</f>
+        <f t="shared" ref="C35:D35" si="45">(C8+C11)/C8</f>
         <v>0.77113230411853761</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.74703986712698667</v>
       </c>
       <c r="E35" s="6">
@@ -1929,11 +2124,11 @@
         <v>0.71892788758153747</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" ref="F35:G35" si="45">(F8+F11)/F8</f>
+        <f t="shared" ref="F35:G35" si="46">(F8+F11)/F8</f>
         <v>0.71860671623927663</v>
       </c>
       <c r="G35" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.72586764085991284</v>
       </c>
       <c r="J35" s="6">
@@ -1941,27 +2136,27 @@
         <v>0.72269410491908936</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" ref="K35:O35" si="46">(K8+K11)/K8</f>
+        <f t="shared" ref="K35:O35" si="47">(K8+K11)/K8</f>
         <v>0.71850457619936048</v>
       </c>
-      <c r="L35" s="6" t="e">
-        <f t="shared" si="46"/>
+      <c r="L35" s="6">
+        <f t="shared" si="47"/>
+        <v>0.73002907160462616</v>
+      </c>
+      <c r="M35" s="6" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="6" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="N35" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.7224479224855016</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.72518206400855711</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1970,11 +2165,11 @@
         <v>0.29137760158572845</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" ref="C36:D36" si="47">(C9+C12)/C9</f>
+        <f t="shared" ref="C36:D36" si="48">(C9+C12)/C9</f>
         <v>0.20939759036144578</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.13692059935583251</v>
       </c>
       <c r="E36" s="6">
@@ -1982,15 +2177,51 @@
         <v>0.18477474610109662</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" ref="F36:G36" si="48">(F9+F12)/F9</f>
+        <f t="shared" ref="F36:P36" si="49">(F9+F12)/F9</f>
         <v>0.14410887397464578</v>
       </c>
       <c r="G36" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.23181224859479474</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H36" s="6" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="6" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="49"/>
+        <v>0.16921931503935334</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="49"/>
+        <v>0.19550510262584567</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="49"/>
+        <v>0.26742500278800047</v>
+      </c>
+      <c r="M36" s="6" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" si="49"/>
+        <v>0.23646584382255897</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="49"/>
+        <v>0.25971731448763252</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="49"/>
+        <v>0.29764926608542103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1999,11 +2230,11 @@
         <v>0.70878483844140094</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ref="C37:D37" si="49">C14/C10</f>
+        <f t="shared" ref="C37:D37" si="50">C14/C10</f>
         <v>0.72122087066099394</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.70468740127246132</v>
       </c>
       <c r="E37" s="6">
@@ -2011,15 +2242,51 @@
         <v>0.68444763206849402</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" ref="F37:G37" si="50">F14/F10</f>
+        <f t="shared" ref="F37:G37" si="51">F14/F10</f>
         <v>0.68711966287296578</v>
       </c>
       <c r="G37" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.70202016954971469</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H37" s="6">
+        <f t="shared" ref="H37:P37" si="52">H14/H10</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="52"/>
+        <v>0.6942852151506218</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="52"/>
+        <v>0.69455210007247059</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="52"/>
+        <v>0.70916753418526179</v>
+      </c>
+      <c r="M37" s="6" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" si="52"/>
+        <v>0.70305849313265167</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="52"/>
+        <v>0.70744887999961537</v>
+      </c>
+      <c r="P37" s="6">
+        <f t="shared" si="52"/>
+        <v>0.70642522384861217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -2028,11 +2295,11 @@
         <v>-0.13279158339303898</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" ref="D38:E38" si="51">D21/C21-1</f>
+        <f t="shared" ref="D38:E38" si="53">D21/C21-1</f>
         <v>0.61102293727579093</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.62033225819511739</v>
       </c>
       <c r="F38" s="6">
@@ -2043,8 +2310,44 @@
         <f>G21/F21-1</f>
         <v>-0.27667676097980543</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H38" s="6">
+        <f>H21/G21-1</f>
+        <v>-2.9075223266817782</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" ref="I38:P38" si="54">I21/H21-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J38" s="6" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="54"/>
+        <v>1.1556019194658878</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="54"/>
+        <v>-0.68948295553533745</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="N38" s="6" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="54"/>
+        <v>-0.34897804693414081</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="54"/>
+        <v>1.0292151162790697</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2053,11 +2356,11 @@
         <v>2.6890731122652816</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" ref="D39:E39" si="52">D27/C27-1</f>
+        <f t="shared" ref="D39:E39" si="55">D27/C27-1</f>
         <v>-0.32803573845945577</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-2.4123453805552195</v>
       </c>
       <c r="F39" s="6">
@@ -2067,6 +2370,34 @@
       <c r="G39" s="14">
         <f>G27/F27-1</f>
         <v>1.0658848980996631</v>
+      </c>
+      <c r="H39" s="15">
+        <f>H27/G27-1</f>
+        <v>0.78499178903777045</v>
+      </c>
+      <c r="K39" s="6">
+        <f>(K27/J27-1)*-1</f>
+        <v>21.985233798195242</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" ref="L39:N39" si="56">(L27/K27-1)*-1</f>
+        <v>1.0227512607013018</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="N39" s="6" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" ref="O39:P39" si="57">O27/N27-1</f>
+        <v>6.0688603181521028E-2</v>
+      </c>
+      <c r="P39" s="6">
+        <f t="shared" si="57"/>
+        <v>0.31833590138674883</v>
       </c>
     </row>
   </sheetData>

--- a/rapid7.xlsx
+++ b/rapid7.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48E9AD-AF2D-4F73-BFDE-68CD2F59729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D37849E-93F6-4D13-AB1D-8DC4E1725100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19485" yWindow="90" windowWidth="18690" windowHeight="20850" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
+    <workbookView xWindow="17865" yWindow="0" windowWidth="20640" windowHeight="20985" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Rapid7 Inc</t>
   </si>
@@ -210,12 +210,6 @@
     <t>total cost of rev</t>
   </si>
   <si>
-    <t>gross product %</t>
-  </si>
-  <si>
-    <t>gross service %</t>
-  </si>
-  <si>
     <t>total gross %</t>
   </si>
   <si>
@@ -283,6 +277,114 @@
   </si>
   <si>
     <t>q324</t>
+  </si>
+  <si>
+    <t>acquisitions</t>
+  </si>
+  <si>
+    <t>Noetic Cyber</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>cyber asset attack sufrace management</t>
+  </si>
+  <si>
+    <t>51M</t>
+  </si>
+  <si>
+    <t>Minerva Labs</t>
+  </si>
+  <si>
+    <t>anti evasion and ransomware prevention tech</t>
+  </si>
+  <si>
+    <t>34.6M</t>
+  </si>
+  <si>
+    <t>q3 '24 earnings call notes</t>
+  </si>
+  <si>
+    <t>Threat Detection Response business their area of strength and double digit growth -drove majority of growth in q3</t>
+  </si>
+  <si>
+    <t>q424</t>
+  </si>
+  <si>
+    <t>strong continued demand for consolidated offering across both threat detection and trisk management - together scaled to make up over 175M of ARR</t>
+  </si>
+  <si>
+    <t>avg ARR / customer who own one of consolidated offerings is abt 150k</t>
+  </si>
+  <si>
+    <t>2024 priorities / focuses:</t>
+  </si>
+  <si>
+    <t>innovating to deliver world class detection response experience to their customers</t>
+  </si>
+  <si>
+    <t>accelerating cloud security adoption</t>
+  </si>
+  <si>
+    <t>expanding tyheir partner ecosystem for scale and efficient demand generation - 90% of new ARR bookings were sold through partner ecosystem</t>
+  </si>
+  <si>
+    <t>rapid7 Partner Academy: equips their partners with technical expertise around the command platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">many customers lack a firm grasp of the assets across their hybrid IT environments: Gartner estimates that less than 20% of organizations can clearly identify and inventory a majority of their assets. </t>
+  </si>
+  <si>
+    <t>expect to start 2025 with a stronger pipeline than last year based on how demand generation is currently trending</t>
+  </si>
+  <si>
+    <t>early 2025 expectation: flat to mild ARR growth rate</t>
+  </si>
+  <si>
+    <t>product / total rev</t>
+  </si>
+  <si>
+    <t>service / total rev</t>
+  </si>
+  <si>
+    <t>op margin</t>
+  </si>
+  <si>
+    <t>gross product margin %</t>
+  </si>
+  <si>
+    <t>gross service margin%</t>
+  </si>
+  <si>
+    <t>have 11,000+  customers --&gt; market oportuniry 70k</t>
+  </si>
+  <si>
+    <t>set up next year is focused on the growth risk acceleration</t>
+  </si>
+  <si>
+    <t>expect to see more fcf dollars as they go forward</t>
+  </si>
+  <si>
+    <t>collect more data for more systems than anywhere else in the world</t>
+  </si>
+  <si>
+    <t>MDR?</t>
+  </si>
+  <si>
+    <t>have business with FED</t>
+  </si>
+  <si>
+    <t>D&amp;R business is half of their ARR</t>
   </si>
 </sst>
 </file>
@@ -339,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -356,12 +458,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -380,6 +491,14 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,20 +834,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5349B9F-7FC2-42E4-AED4-1E861F7949C0}">
-  <dimension ref="B1:L53"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.4">
@@ -802,10 +922,10 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9" s="9">
-        <f>K8/Sheet2!G27</f>
+        <f>K8/model!G27</f>
         <v>30.323462170074016</v>
       </c>
     </row>
@@ -959,59 +1079,211 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="19">
+        <v>45474</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="19">
+        <v>44986</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B58:E58"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6320-FE13-4ACB-86E1-0D668F5D5E2C}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5:P5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="H18" sqref="H18"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>2018</v>
       </c>
@@ -1040,28 +1312,31 @@
         <v>2024</v>
       </c>
       <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
         <v>77</v>
       </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1092,11 +1367,11 @@
       <c r="O3">
         <v>11484</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="11">
         <v>11619</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1113,8 +1388,8 @@
         <v>805670</v>
       </c>
       <c r="H4" s="5">
-        <f>G4*1.04</f>
-        <v>837896.8</v>
+        <f>AVERAGE(835000,845000)</f>
+        <v>840000</v>
       </c>
       <c r="J4">
         <v>727853</v>
@@ -1131,11 +1406,15 @@
       <c r="O4">
         <v>815630</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="11">
         <v>823104</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="5">
+        <f>AVERAGE(835000,845000)</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1187,18 +1466,18 @@
         <f t="shared" ref="O5:P5" si="6">O4/O3</f>
         <v>71.023162661093693</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="11">
         <f t="shared" si="6"/>
         <v>70.841208365608054</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1220,6 +1499,10 @@
       <c r="G8" s="11">
         <v>740168</v>
       </c>
+      <c r="H8" s="5">
+        <f>H10*G35</f>
+        <v>799454.19033132016</v>
+      </c>
       <c r="J8">
         <v>173772</v>
       </c>
@@ -1235,13 +1518,13 @@
       <c r="O8">
         <v>200067</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="11">
         <v>205593</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>33297</v>
@@ -1261,6 +1544,10 @@
       <c r="G9" s="11">
         <v>37539</v>
       </c>
+      <c r="H9" s="5">
+        <f>H10*G36</f>
+        <v>40545.809668679853</v>
+      </c>
       <c r="J9">
         <v>9402</v>
       </c>
@@ -1276,11 +1563,11 @@
       <c r="O9">
         <v>7924</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="11">
         <v>9061</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -1309,8 +1596,8 @@
         <v>777707</v>
       </c>
       <c r="H10" s="5">
-        <f>(833000+837000)/2</f>
-        <v>835000</v>
+        <f>(839000+841000)/2</f>
+        <v>840000</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" ref="J10" si="9">SUM(J8:J9)</f>
@@ -1332,12 +1619,16 @@
         <f t="shared" ref="O10:P10" si="12">SUM(O8:O9)</f>
         <v>207991</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="10">
         <f t="shared" si="12"/>
         <v>214654</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="23">
+        <f>AVERAGE(211000,213000)</f>
+        <v>212000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1359,7 +1650,7 @@
       <c r="G11" s="12">
         <v>-202904</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="8"/>
       <c r="J11" s="7">
         <v>-48188</v>
       </c>
@@ -1375,11 +1666,11 @@
       <c r="O11" s="7">
         <v>-54982</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="12">
         <v>-56653</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1416,11 +1707,11 @@
       <c r="O12" s="7">
         <v>-5866</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="12">
         <v>-6364</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -1468,14 +1759,14 @@
         <f t="shared" ref="O13:P13" si="18">SUM(O11:O12)</f>
         <v>-60848</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="13">
         <f t="shared" si="18"/>
         <v>-63017</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8">
         <f>B10+B13</f>
@@ -1521,14 +1812,14 @@
         <f t="shared" ref="O14:P14" si="24">O10+O13</f>
         <v>147143</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="13">
         <f t="shared" si="24"/>
         <v>151637</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="7">
         <v>-67743</v>
@@ -1563,13 +1854,13 @@
       <c r="O15" s="7">
         <v>-40056</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="12">
         <v>-44565</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="7">
         <v>-123310</v>
@@ -1604,13 +1895,13 @@
       <c r="O16" s="7">
         <v>-77795</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="12">
         <v>-74521</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="7">
         <v>-34993</v>
@@ -1645,13 +1936,13 @@
       <c r="O17" s="7">
         <v>-22412</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="12">
         <v>-18590</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -1686,13 +1977,13 @@
       <c r="O18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -1727,13 +2018,13 @@
       <c r="O19" s="7">
         <v>0</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="7">
         <f>SUM(B15:B19)</f>
@@ -1779,14 +2070,14 @@
         <f t="shared" ref="O20:P20" si="30">SUM(O15:O19)</f>
         <v>-140263</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="12">
         <f t="shared" si="30"/>
         <v>-137676</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="8">
         <f>B14+B20</f>
@@ -1813,8 +2104,8 @@
         <v>-80733</v>
       </c>
       <c r="H21" s="5">
-        <f>(152000+156000)/2</f>
-        <v>154000</v>
+        <f>AVERAGE(157000,159000)</f>
+        <v>158000</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ref="J21" si="33">J14+J20</f>
@@ -1836,14 +2127,14 @@
         <f t="shared" ref="O21:P21" si="36">O14+O20</f>
         <v>6880</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="13">
         <f t="shared" si="36"/>
         <v>13961</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="7">
         <f>3229-4934-336</f>
@@ -1889,14 +2180,14 @@
         <f>5221-2673-695-538</f>
         <v>1315</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="12">
         <f>5571-2837+2811-2952</f>
         <v>2593</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="8">
         <f>B22+B21</f>
@@ -1942,7 +2233,7 @@
         <f t="shared" ref="O23:P23" si="42">O22+O21</f>
         <v>8195</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="13">
         <f t="shared" si="42"/>
         <v>16554</v>
       </c>
@@ -1955,7 +2246,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>-13428</v>
@@ -2020,7 +2311,7 @@
       <c r="O27">
         <v>29205</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="11">
         <v>38502</v>
       </c>
     </row>
@@ -2039,10 +2330,10 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2068,336 +2359,447 @@
       </c>
       <c r="H34" s="15">
         <f>H10/G10-1</f>
-        <v>7.3669132462482745E-2</v>
-      </c>
-      <c r="I34" s="15">
-        <f t="shared" ref="I34:P34" si="44">I10/H10-1</f>
-        <v>-1</v>
-      </c>
-      <c r="J34" s="15" t="e">
+        <v>8.0098288944293827E-2</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21">
+        <f>N10/J10-1</f>
+        <v>0.1197058534508173</v>
+      </c>
+      <c r="O34" s="21">
+        <f t="shared" ref="O34:Q34" si="44">O10/K10-1</f>
+        <v>9.2263498965455604E-2</v>
+      </c>
+      <c r="P34" s="22">
+        <f t="shared" si="44"/>
+        <v>7.9514994241688175E-2</v>
+      </c>
+      <c r="Q34" s="21" t="e">
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="15">
-        <f t="shared" si="44"/>
-        <v>3.9568934455763483E-2</v>
-      </c>
-      <c r="L34" s="15">
-        <f t="shared" si="44"/>
-        <v>4.4222831395531959E-2</v>
-      </c>
-      <c r="M34" s="15">
-        <f t="shared" si="44"/>
-        <v>-1</v>
-      </c>
-      <c r="N34" s="15" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="15">
-        <f t="shared" si="44"/>
-        <v>1.4090618768314078E-2</v>
-      </c>
-      <c r="P34" s="15">
-        <f t="shared" si="44"/>
-        <v>3.2035039977691415E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B35" s="6">
+        <f>B8/B10</f>
+        <v>0.86358776030251017</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" ref="C35:P35" si="45">C8/C10</f>
+        <v>0.91114767836988875</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="45"/>
+        <v>0.93058330052541283</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="45"/>
+        <v>0.93544874524658017</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="45"/>
+        <v>0.94519204242405663</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="45"/>
+        <v>0.95173117896585735</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="45"/>
+        <v>0.95173117896585735</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6">
+        <f t="shared" si="45"/>
+        <v>0.94867175472501553</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="45"/>
+        <v>0.95420172038945084</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="45"/>
+        <v>0.95490412033614458</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6">
+        <f t="shared" si="45"/>
+        <v>0.96010258360515066</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="45"/>
+        <v>0.9619021976912463</v>
+      </c>
+      <c r="P35" s="14">
+        <f t="shared" si="45"/>
+        <v>0.95778788189365216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="6">
+        <f>B9/B10</f>
+        <v>0.13641223969748986</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" ref="C36:P36" si="46">C9/C10</f>
+        <v>8.8852321630111308E-2</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="46"/>
+        <v>6.9416699474587229E-2</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="46"/>
+        <v>6.4551254753419843E-2</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="46"/>
+        <v>5.4807957575943353E-2</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="46"/>
+        <v>4.8268821034142678E-2</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="46"/>
+        <v>4.8268821034142685E-2</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21">
+        <f t="shared" si="46"/>
+        <v>5.132824527498444E-2</v>
+      </c>
+      <c r="K36" s="21">
+        <f t="shared" si="46"/>
+        <v>4.5798279610549199E-2</v>
+      </c>
+      <c r="L36" s="21">
+        <f t="shared" si="46"/>
+        <v>4.5095879663855407E-2</v>
+      </c>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21">
+        <f t="shared" si="46"/>
+        <v>3.9897416394849367E-2</v>
+      </c>
+      <c r="O36" s="21">
+        <f t="shared" si="46"/>
+        <v>3.8097802308753745E-2</v>
+      </c>
+      <c r="P36" s="22">
+        <f t="shared" si="46"/>
+        <v>4.2212118106347889E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="6">
         <f>(B8+B11)/B8</f>
         <v>0.77471844549655111</v>
       </c>
-      <c r="C35" s="6">
-        <f t="shared" ref="C35:D35" si="45">(C8+C11)/C8</f>
+      <c r="C37" s="6">
+        <f t="shared" ref="C37:D37" si="47">(C8+C11)/C8</f>
         <v>0.77113230411853761</v>
       </c>
-      <c r="D35" s="6">
-        <f t="shared" si="45"/>
+      <c r="D37" s="6">
+        <f t="shared" si="47"/>
         <v>0.74703986712698667</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E37" s="6">
         <f>(E8+E11)/E8</f>
         <v>0.71892788758153747</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" ref="F35:G35" si="46">(F8+F11)/F8</f>
+      <c r="F37" s="6">
+        <f t="shared" ref="F37:H37" si="48">(F8+F11)/F8</f>
         <v>0.71860671623927663</v>
       </c>
-      <c r="G35" s="14">
-        <f t="shared" si="46"/>
+      <c r="G37" s="14">
+        <f t="shared" si="48"/>
         <v>0.72586764085991284</v>
       </c>
-      <c r="J35" s="6">
+      <c r="H37"/>
+      <c r="J37" s="6">
         <f>(J8+J11)/J8</f>
         <v>0.72269410491908936</v>
       </c>
-      <c r="K35" s="6">
-        <f t="shared" ref="K35:O35" si="47">(K8+K11)/K8</f>
+      <c r="K37" s="6">
+        <f t="shared" ref="K37:P37" si="49">(K8+K11)/K8</f>
         <v>0.71850457619936048</v>
       </c>
-      <c r="L35" s="6">
-        <f t="shared" si="47"/>
+      <c r="L37" s="6">
+        <f t="shared" si="49"/>
         <v>0.73002907160462616</v>
       </c>
-      <c r="M35" s="6" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="47"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6">
+        <f t="shared" si="49"/>
         <v>0.7224479224855016</v>
       </c>
-      <c r="O35" s="6">
-        <f t="shared" si="47"/>
+      <c r="O37" s="6">
+        <f t="shared" si="49"/>
         <v>0.72518206400855711</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="P37" s="14">
+        <f t="shared" si="49"/>
+        <v>0.72444100723273652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="6">
         <f>(B9+B12)/B9</f>
         <v>0.29137760158572845</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" ref="C36:D36" si="48">(C9+C12)/C9</f>
+      <c r="C38" s="6">
+        <f t="shared" ref="C38:D38" si="50">(C9+C12)/C9</f>
         <v>0.20939759036144578</v>
       </c>
-      <c r="D36" s="6">
-        <f t="shared" si="48"/>
+      <c r="D38" s="6">
+        <f t="shared" si="50"/>
         <v>0.13692059935583251</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E38" s="6">
         <f>(E9+E12)/E9</f>
         <v>0.18477474610109662</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" ref="F36:P36" si="49">(F9+F12)/F9</f>
+      <c r="F38" s="6">
+        <f>(F9+F12)/F9</f>
         <v>0.14410887397464578</v>
       </c>
-      <c r="G36" s="14">
-        <f t="shared" si="49"/>
+      <c r="G38" s="14">
+        <f>(G9+G12)/G9</f>
         <v>0.23181224859479474</v>
       </c>
-      <c r="H36" s="6" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="6" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="6">
-        <f t="shared" si="49"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6">
+        <f>(J9+J12)/J9</f>
         <v>0.16921931503935334</v>
       </c>
-      <c r="K36" s="6">
-        <f t="shared" si="49"/>
+      <c r="K38" s="6">
+        <f>(K9+K12)/K9</f>
         <v>0.19550510262584567</v>
       </c>
-      <c r="L36" s="6">
-        <f t="shared" si="49"/>
+      <c r="L38" s="6">
+        <f>(L9+L12)/L9</f>
         <v>0.26742500278800047</v>
       </c>
-      <c r="M36" s="6" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="6">
-        <f t="shared" si="49"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6">
+        <f>(N9+N12)/N9</f>
         <v>0.23646584382255897</v>
       </c>
-      <c r="O36" s="6">
-        <f t="shared" si="49"/>
+      <c r="O38" s="6">
+        <f>(O9+O12)/O9</f>
         <v>0.25971731448763252</v>
       </c>
-      <c r="P36" s="6">
-        <f t="shared" si="49"/>
+      <c r="P38" s="14">
+        <f>(P9+P12)/P9</f>
         <v>0.29764926608542103</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="6">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="6">
         <f>B14/B10</f>
         <v>0.70878483844140094</v>
       </c>
-      <c r="C37" s="6">
-        <f t="shared" ref="C37:D37" si="50">C14/C10</f>
+      <c r="C39" s="6">
+        <f t="shared" ref="C39:D39" si="51">C14/C10</f>
         <v>0.72122087066099394</v>
       </c>
-      <c r="D37" s="6">
-        <f t="shared" si="50"/>
+      <c r="D39" s="6">
+        <f t="shared" si="51"/>
         <v>0.70468740127246132</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E39" s="6">
         <f>E14/E10</f>
         <v>0.68444763206849402</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" ref="F37:G37" si="51">F14/F10</f>
+      <c r="F39" s="6">
+        <f t="shared" ref="F39:G39" si="52">F14/F10</f>
         <v>0.68711966287296578</v>
       </c>
-      <c r="G37" s="14">
-        <f t="shared" si="51"/>
+      <c r="G39" s="14">
+        <f t="shared" si="52"/>
         <v>0.70202016954971469</v>
       </c>
-      <c r="H37" s="6">
-        <f t="shared" ref="H37:P37" si="52">H14/H10</f>
+      <c r="H39" s="15">
+        <f>H14/H10</f>
         <v>0</v>
       </c>
-      <c r="I37" s="6" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="6">
-        <f t="shared" si="52"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6">
+        <f>J14/J10</f>
         <v>0.6942852151506218</v>
       </c>
-      <c r="K37" s="6">
-        <f t="shared" si="52"/>
+      <c r="K39" s="6">
+        <f>K14/K10</f>
         <v>0.69455210007247059</v>
       </c>
-      <c r="L37" s="6">
-        <f t="shared" si="52"/>
+      <c r="L39" s="6">
+        <f>L14/L10</f>
         <v>0.70916753418526179</v>
       </c>
-      <c r="M37" s="6" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="6">
-        <f t="shared" si="52"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6">
+        <f>N14/N10</f>
         <v>0.70305849313265167</v>
       </c>
-      <c r="O37" s="6">
-        <f t="shared" si="52"/>
+      <c r="O39" s="6">
+        <f>O14/O10</f>
         <v>0.70744887999961537</v>
       </c>
-      <c r="P37" s="6">
-        <f t="shared" si="52"/>
+      <c r="P39" s="14">
+        <f>P14/P10</f>
         <v>0.70642522384861217</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="6">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="6">
+        <f>B21/B10</f>
+        <v>-0.21728781479038556</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" ref="C40:H40" si="53">C21/C10</f>
+        <v>-0.14068029374791632</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="53"/>
+        <v>-0.18007660041896931</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="53"/>
+        <v>-0.22425121963974867</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="53"/>
+        <v>-0.16292040526476353</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="53"/>
+        <v>-0.10380901804921391</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="53"/>
+        <v>0.18809523809523809</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="14"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="6">
         <f>C21/B21-1</f>
         <v>-0.13279158339303898</v>
       </c>
-      <c r="D38" s="6">
-        <f t="shared" ref="D38:E38" si="53">D21/C21-1</f>
+      <c r="D41" s="6">
+        <f t="shared" ref="D41:E41" si="54">D21/C21-1</f>
         <v>0.61102293727579093</v>
       </c>
-      <c r="E38" s="6">
-        <f t="shared" si="53"/>
+      <c r="E41" s="6">
+        <f t="shared" si="54"/>
         <v>0.62033225819511739</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F41" s="6">
         <f>F21/E21-1</f>
         <v>-7.0386873776704273E-2</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G41" s="14">
         <f>G21/F21-1</f>
         <v>-0.27667676097980543</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H41" s="15">
         <f>H21/G21-1</f>
-        <v>-2.9075223266817782</v>
-      </c>
-      <c r="I38" s="6">
-        <f t="shared" ref="I38:P38" si="54">I21/H21-1</f>
-        <v>-1</v>
-      </c>
-      <c r="J38" s="6" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" si="54"/>
-        <v>1.1556019194658878</v>
-      </c>
-      <c r="L38" s="6">
-        <f t="shared" si="54"/>
-        <v>-0.68948295553533745</v>
-      </c>
-      <c r="M38" s="6">
-        <f t="shared" si="54"/>
-        <v>-1</v>
-      </c>
-      <c r="N38" s="6" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="6">
-        <f t="shared" si="54"/>
-        <v>-0.34897804693414081</v>
-      </c>
-      <c r="P38" s="6">
-        <f t="shared" si="54"/>
-        <v>1.0292151162790697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <v>-2.9570683611410451</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6">
+        <f>(N21-J21)/ABS(J21)</f>
+        <v>1.4409764239515961</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" ref="O41:P41" si="55">(O21-K21)/ABS(K21)</f>
+        <v>1.133181052672332</v>
+      </c>
+      <c r="P41" s="14">
+        <f t="shared" si="55"/>
+        <v>1.8703322735490306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C42" s="6">
         <f>C27/B27-1</f>
         <v>2.6890731122652816</v>
       </c>
-      <c r="D39" s="6">
-        <f t="shared" ref="D39:E39" si="55">D27/C27-1</f>
+      <c r="D42" s="6">
+        <f t="shared" ref="D42:E42" si="56">D27/C27-1</f>
         <v>-0.32803573845945577</v>
       </c>
-      <c r="E39" s="6">
-        <f t="shared" si="55"/>
+      <c r="E42" s="6">
+        <f t="shared" si="56"/>
         <v>-2.4123453805552195</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F42" s="6">
         <f>F27/E27-1</f>
         <v>0.16044275810914899</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G42" s="14">
         <f>G27/F27-1</f>
         <v>1.0658848980996631</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H42" s="15">
         <f>H27/G27-1</f>
         <v>0.78499178903777045</v>
       </c>
-      <c r="K39" s="6">
-        <f>(K27/J27-1)*-1</f>
-        <v>21.985233798195242</v>
-      </c>
-      <c r="L39" s="6">
-        <f t="shared" ref="L39:N39" si="56">(L27/K27-1)*-1</f>
-        <v>1.0227512607013018</v>
-      </c>
-      <c r="M39" s="6">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="N39" s="6" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="6">
-        <f t="shared" ref="O39:P39" si="57">O27/N27-1</f>
-        <v>6.0688603181521028E-2</v>
-      </c>
-      <c r="P39" s="6">
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6">
+        <f>(N27-J27)/ABS(J27)</f>
+        <v>23.587366694011486</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" ref="O42:P42" si="57">(O27-K27)/ABS(K27)</f>
+        <v>0.14166764395449749</v>
+      </c>
+      <c r="P42" s="14">
         <f t="shared" si="57"/>
-        <v>0.31833590138674883</v>
+        <v>67.154639175257728</v>
       </c>
     </row>
   </sheetData>

--- a/rapid7.xlsx
+++ b/rapid7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D37849E-93F6-4D13-AB1D-8DC4E1725100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA698B8-D0B7-47BB-BB53-732FD8D9FDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="0" windowWidth="20640" windowHeight="20985" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
+    <workbookView xWindow="4680" yWindow="750" windowWidth="30150" windowHeight="20850" xr2:uid="{BB64DF12-4F8E-4A34-A19B-EF979A154CED}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Rapid7 Inc</t>
   </si>
@@ -231,9 +231,6 @@
     <t>restructuring</t>
   </si>
   <si>
-    <t>total op loss</t>
-  </si>
-  <si>
     <t>loss from operations</t>
   </si>
   <si>
@@ -385,6 +382,27 @@
   </si>
   <si>
     <t>D&amp;R business is half of their ARR</t>
+  </si>
+  <si>
+    <t>op cash flow</t>
+  </si>
+  <si>
+    <t>capex</t>
+  </si>
+  <si>
+    <t>870000-890000</t>
+  </si>
+  <si>
+    <t>860000-870000</t>
+  </si>
+  <si>
+    <t>q125</t>
+  </si>
+  <si>
+    <t>207-209000</t>
+  </si>
+  <si>
+    <t>total op exp</t>
   </si>
 </sst>
 </file>
@@ -491,14 +509,14 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,6 +533,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41964004-2CD0-0159-D57A-278B7797C1D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5747657" y="195943"/>
+          <a:ext cx="5443" cy="8452757"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -836,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5349B9F-7FC2-42E4-AED4-1E861F7949C0}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +926,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.4">
@@ -861,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>38.26</v>
+        <v>30.69</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -890,7 +968,7 @@
       </c>
       <c r="K5" s="4">
         <f>K4*K3</f>
-        <v>2418299.8199999998</v>
+        <v>1939822.83</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -916,17 +994,17 @@
       </c>
       <c r="K8" s="4">
         <f>K5+K7-K6-34</f>
-        <v>2548201.8199999998</v>
+        <v>2069724.83</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="9">
-        <f>K8/model!G27</f>
-        <v>30.323462170074016</v>
+        <f>K8/model!G29</f>
+        <v>24.629612180783969</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -1105,149 +1183,149 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="18">
+        <v>45474</v>
+      </c>
+      <c r="C60" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="20" t="s">
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="19">
-        <v>45474</v>
-      </c>
-      <c r="C60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="18">
+        <v>44986</v>
+      </c>
+      <c r="C61" t="s">
         <v>87</v>
       </c>
-      <c r="E60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="19">
-        <v>44986</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" t="s">
         <v>88</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="E61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1260,30 +1338,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6320-FE13-4ACB-86E1-0D668F5D5E2C}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H18" sqref="H18"/>
       <selection pane="topRight" activeCell="H18" sqref="H18"/>
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
-      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="11"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>2018</v>
       </c>
@@ -1292,7 +1370,7 @@
         <v>2019</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:H2" si="0">C2+1</f>
+        <f t="shared" ref="D2:G2" si="0">C2+1</f>
         <v>2020</v>
       </c>
       <c r="E2" s="5">
@@ -1307,36 +1385,45 @@
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="H2" s="17">
-        <f t="shared" si="0"/>
+      <c r="H2" s="5">
         <v>2024</v>
       </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I2" s="17">
+        <f>G2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="J2" s="17">
+        <v>2025</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" t="s">
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="M2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1352,26 +1439,29 @@
       <c r="G3" s="11">
         <v>11526</v>
       </c>
-      <c r="J3">
+      <c r="H3">
+        <v>11727</v>
+      </c>
+      <c r="O3">
         <v>11034</v>
       </c>
-      <c r="K3">
+      <c r="P3">
         <v>11287</v>
       </c>
-      <c r="L3">
+      <c r="Q3">
         <v>11412</v>
       </c>
-      <c r="N3">
+      <c r="S3">
         <v>11462</v>
       </c>
-      <c r="O3">
+      <c r="T3">
         <v>11484</v>
       </c>
-      <c r="P3" s="11">
+      <c r="U3" s="11">
         <v>11619</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1387,34 +1477,40 @@
       <c r="G4" s="11">
         <v>805670</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
+        <v>839819</v>
+      </c>
+      <c r="I4" s="5">
         <f>AVERAGE(835000,845000)</f>
         <v>840000</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4">
         <v>727853</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>750850</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <v>776760</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>807196</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>815630</v>
       </c>
-      <c r="P4" s="11">
+      <c r="U4" s="11">
         <v>823104</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="V4" s="5">
         <f>AVERAGE(835000,845000)</f>
         <v>840000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1435,49 +1531,53 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:G5" si="2">F4/F3</f>
+        <f t="shared" ref="F5:H5" si="2">F4/F3</f>
         <v>65.351907768322818</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
         <v>69.900225576956444</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5" si="3">J4/J3</f>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>71.614138313294106</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5" si="3">O4/O3</f>
         <v>65.964564074678265</v>
       </c>
-      <c r="K5">
-        <f t="shared" ref="K5:M5" si="4">K4/K3</f>
+      <c r="P5">
+        <f t="shared" ref="P5:R5" si="4">P4/P3</f>
         <v>66.523434039160094</v>
       </c>
-      <c r="L5">
+      <c r="Q5">
         <f t="shared" si="4"/>
         <v>68.065194532071501</v>
       </c>
-      <c r="M5" t="e">
+      <c r="R5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5">
-        <f t="shared" ref="N5" si="5">N4/N3</f>
+      <c r="S5">
+        <f t="shared" ref="S5" si="5">S4/S3</f>
         <v>70.423660792182872</v>
       </c>
-      <c r="O5">
-        <f t="shared" ref="O5:P5" si="6">O4/O3</f>
+      <c r="T5">
+        <f t="shared" ref="T5:U5" si="6">T4/T3</f>
         <v>71.023162661093693</v>
       </c>
-      <c r="P5" s="11">
+      <c r="U5" s="11">
         <f t="shared" si="6"/>
         <v>70.841208365608054</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1499,32 +1599,35 @@
       <c r="G8" s="11">
         <v>740168</v>
       </c>
-      <c r="H8" s="5">
-        <f>H10*G35</f>
+      <c r="H8">
+        <v>808906</v>
+      </c>
+      <c r="I8" s="5">
+        <f>I10*G37</f>
         <v>799454.19033132016</v>
       </c>
-      <c r="J8">
+      <c r="O8">
         <v>173772</v>
       </c>
-      <c r="K8">
+      <c r="P8">
         <v>181701</v>
       </c>
-      <c r="L8">
+      <c r="Q8">
         <v>189876</v>
       </c>
-      <c r="N8">
+      <c r="S8">
         <v>196918</v>
       </c>
-      <c r="O8">
+      <c r="T8">
         <v>200067</v>
       </c>
-      <c r="P8" s="11">
+      <c r="U8" s="11">
         <v>205593</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>33297</v>
@@ -1544,30 +1647,33 @@
       <c r="G9" s="11">
         <v>37539</v>
       </c>
-      <c r="H9" s="5">
-        <f>H10*G36</f>
+      <c r="H9">
+        <v>35101</v>
+      </c>
+      <c r="I9" s="5">
+        <f>I10*G38</f>
         <v>40545.809668679853</v>
       </c>
-      <c r="J9">
+      <c r="O9">
         <v>9402</v>
       </c>
-      <c r="K9">
+      <c r="P9">
         <v>8721</v>
       </c>
-      <c r="L9">
+      <c r="Q9">
         <v>8967</v>
       </c>
-      <c r="N9">
+      <c r="S9">
         <v>8183</v>
       </c>
-      <c r="O9">
+      <c r="T9">
         <v>7924</v>
       </c>
-      <c r="P9" s="11">
+      <c r="U9" s="11">
         <v>9061</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -1596,39 +1702,49 @@
         <v>777707</v>
       </c>
       <c r="H10" s="5">
+        <f>SUM(H8:H9)</f>
+        <v>844007</v>
+      </c>
+      <c r="I10" s="5">
         <f>(839000+841000)/2</f>
         <v>840000</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" ref="J10" si="9">SUM(J8:J9)</f>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" ref="O10" si="9">SUM(O8:O9)</f>
         <v>183174</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" ref="K10:L10" si="10">SUM(K8:K9)</f>
+      <c r="P10" s="5">
+        <f t="shared" ref="P10:Q10" si="10">SUM(P8:P9)</f>
         <v>190422</v>
       </c>
-      <c r="L10" s="5">
+      <c r="Q10" s="5">
         <f t="shared" si="10"/>
         <v>198843</v>
       </c>
-      <c r="N10" s="5">
-        <f t="shared" ref="N10" si="11">SUM(N8:N9)</f>
+      <c r="S10" s="5">
+        <f t="shared" ref="S10" si="11">SUM(S8:S9)</f>
         <v>205101</v>
       </c>
-      <c r="O10" s="5">
-        <f t="shared" ref="O10:P10" si="12">SUM(O8:O9)</f>
+      <c r="T10" s="5">
+        <f t="shared" ref="T10:U10" si="12">SUM(T8:T9)</f>
         <v>207991</v>
       </c>
-      <c r="P10" s="10">
+      <c r="U10" s="10">
         <f t="shared" si="12"/>
         <v>214654</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="V10" s="5">
         <f>AVERAGE(211000,213000)</f>
         <v>212000</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1648,29 +1764,32 @@
         <v>-182212</v>
       </c>
       <c r="G11" s="12">
-        <v>-202904</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="J11" s="7">
+        <v>-203140</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-225547</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="O11" s="7">
         <v>-48188</v>
       </c>
-      <c r="K11" s="7">
+      <c r="P11" s="7">
         <v>-51148</v>
       </c>
-      <c r="L11" s="7">
+      <c r="Q11" s="7">
         <v>-51261</v>
       </c>
-      <c r="N11" s="7">
+      <c r="S11" s="7">
         <v>-54655</v>
       </c>
-      <c r="O11" s="7">
+      <c r="T11" s="7">
         <v>-54982</v>
       </c>
-      <c r="P11" s="12">
+      <c r="U11" s="12">
         <v>-56653</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1690,28 +1809,31 @@
         <v>-32137</v>
       </c>
       <c r="G12" s="12">
-        <v>-28837</v>
-      </c>
-      <c r="J12" s="7">
+        <v>-28906</v>
+      </c>
+      <c r="H12" s="7">
+        <v>-25488</v>
+      </c>
+      <c r="O12" s="7">
         <v>-7811</v>
       </c>
-      <c r="K12" s="7">
+      <c r="P12" s="7">
         <v>-7016</v>
       </c>
-      <c r="L12" s="7">
+      <c r="Q12" s="7">
         <v>-6569</v>
       </c>
-      <c r="N12" s="7">
+      <c r="S12" s="7">
         <v>-6248</v>
       </c>
-      <c r="O12" s="7">
+      <c r="T12" s="7">
         <v>-5866</v>
       </c>
-      <c r="P12" s="12">
+      <c r="U12" s="12">
         <v>-6364</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -1732,39 +1854,43 @@
         <v>-168948</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" ref="F13:G13" si="14">SUM(F11:F12)</f>
+        <f t="shared" ref="F13:H13" si="14">SUM(F11:F12)</f>
         <v>-214349</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="14"/>
-        <v>-231741</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" ref="J13" si="15">SUM(J11:J12)</f>
+        <v>-232046</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="14"/>
+        <v>-251035</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" ref="O13" si="15">SUM(O11:O12)</f>
         <v>-55999</v>
       </c>
-      <c r="K13" s="8">
-        <f t="shared" ref="K13:L13" si="16">SUM(K11:K12)</f>
+      <c r="P13" s="8">
+        <f t="shared" ref="P13:Q13" si="16">SUM(P11:P12)</f>
         <v>-58164</v>
       </c>
-      <c r="L13" s="8">
+      <c r="Q13" s="8">
         <f t="shared" si="16"/>
         <v>-57830</v>
       </c>
-      <c r="N13" s="8">
-        <f t="shared" ref="N13" si="17">SUM(N11:N12)</f>
+      <c r="S13" s="8">
+        <f t="shared" ref="S13" si="17">SUM(S11:S12)</f>
         <v>-60903</v>
       </c>
-      <c r="O13" s="8">
-        <f t="shared" ref="O13:P13" si="18">SUM(O11:O12)</f>
+      <c r="T13" s="8">
+        <f t="shared" ref="T13:U13" si="18">SUM(T11:T12)</f>
         <v>-60848</v>
       </c>
-      <c r="P13" s="13">
+      <c r="U13" s="13">
         <f t="shared" si="18"/>
         <v>-63017</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -1790,34 +1916,38 @@
       </c>
       <c r="G14" s="13">
         <f t="shared" si="20"/>
-        <v>545966</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" ref="J14" si="21">J10+J13</f>
+        <v>545661</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" ref="H14" si="21">H10+H13</f>
+        <v>592972</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" ref="O14" si="22">O10+O13</f>
         <v>127175</v>
       </c>
-      <c r="K14" s="8">
-        <f t="shared" ref="K14:L14" si="22">K10+K13</f>
+      <c r="P14" s="8">
+        <f t="shared" ref="P14:Q14" si="23">P10+P13</f>
         <v>132258</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="22"/>
+      <c r="Q14" s="8">
+        <f t="shared" si="23"/>
         <v>141013</v>
       </c>
-      <c r="N14" s="8">
-        <f t="shared" ref="N14" si="23">N10+N13</f>
+      <c r="S14" s="8">
+        <f t="shared" ref="S14" si="24">S10+S13</f>
         <v>144198</v>
       </c>
-      <c r="O14" s="8">
-        <f t="shared" ref="O14:P14" si="24">O10+O13</f>
+      <c r="T14" s="8">
+        <f t="shared" ref="T14:U14" si="25">T10+T13</f>
         <v>147143</v>
       </c>
-      <c r="P14" s="13">
-        <f t="shared" si="24"/>
+      <c r="U14" s="13">
+        <f t="shared" si="25"/>
         <v>151637</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1837,28 +1967,31 @@
         <v>-189970</v>
       </c>
       <c r="G15" s="12">
-        <v>-176776</v>
-      </c>
-      <c r="J15" s="7">
+        <v>-177937</v>
+      </c>
+      <c r="H15" s="12">
+        <v>-173126</v>
+      </c>
+      <c r="O15" s="7">
         <v>-46346</v>
       </c>
-      <c r="K15" s="7">
+      <c r="P15" s="7">
         <v>-50762</v>
       </c>
-      <c r="L15" s="7">
+      <c r="Q15" s="7">
         <v>-39940</v>
       </c>
-      <c r="N15" s="7">
+      <c r="S15" s="7">
         <v>-40990</v>
       </c>
-      <c r="O15" s="7">
+      <c r="T15" s="7">
         <v>-40056</v>
       </c>
-      <c r="P15" s="12">
+      <c r="U15" s="12">
         <v>-44565</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1878,28 +2011,31 @@
         <v>-307409</v>
       </c>
       <c r="G16" s="12">
-        <v>-312636</v>
-      </c>
-      <c r="J16" s="7">
+        <v>-313661</v>
+      </c>
+      <c r="H16" s="12">
+        <v>-298809</v>
+      </c>
+      <c r="O16" s="7">
         <v>-80587</v>
       </c>
-      <c r="K16" s="7">
+      <c r="P16" s="7">
         <v>-83036</v>
       </c>
-      <c r="L16" s="7">
+      <c r="Q16" s="7">
         <v>-75699</v>
       </c>
-      <c r="N16" s="7">
+      <c r="S16" s="7">
         <v>-72805</v>
       </c>
-      <c r="O16" s="7">
+      <c r="T16" s="7">
         <v>-77795</v>
       </c>
-      <c r="P16" s="12">
+      <c r="U16" s="12">
         <v>-74521</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1919,28 +2055,31 @@
         <v>-84969</v>
       </c>
       <c r="G17" s="12">
-        <v>-84276</v>
-      </c>
-      <c r="J17" s="7">
+        <v>-85340</v>
+      </c>
+      <c r="H17" s="12">
+        <v>-86002</v>
+      </c>
+      <c r="O17" s="7">
         <v>-24207</v>
       </c>
-      <c r="K17" s="7">
+      <c r="P17" s="7">
         <v>-22888</v>
       </c>
-      <c r="L17" s="7">
+      <c r="Q17" s="7">
         <v>-17866</v>
       </c>
-      <c r="N17" s="7">
+      <c r="S17" s="7">
         <v>-19835</v>
       </c>
-      <c r="O17" s="7">
+      <c r="T17" s="7">
         <v>-22412</v>
       </c>
-      <c r="P17" s="12">
+      <c r="U17" s="12">
         <v>-18590</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1962,26 +2101,29 @@
       <c r="G18" s="12">
         <v>-30784</v>
       </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>-27231</v>
-      </c>
-      <c r="L18" s="7">
-        <v>-3553</v>
-      </c>
-      <c r="N18" s="7">
+      <c r="H18" s="12">
         <v>0</v>
       </c>
       <c r="O18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="7">
+        <v>-27231</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>-3553</v>
+      </c>
+      <c r="S18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -2003,39 +2145,42 @@
       <c r="G19" s="12">
         <v>-22227</v>
       </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>-19996</v>
-      </c>
-      <c r="N19" s="7">
+      <c r="H19" s="12">
         <v>0</v>
       </c>
       <c r="O19" s="7">
         <v>0</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="7">
+        <v>-19996</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B20" s="7">
-        <f>SUM(B15:B19)</f>
-        <v>-226046</v>
+        <f>SUM(B14:B19)</f>
+        <v>-53038</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" ref="C20:D20" si="25">SUM(C15:C17)</f>
+        <f t="shared" ref="C20:D20" si="26">SUM(C15:C17)</f>
         <v>-281796</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-364068</v>
       </c>
       <c r="E20" s="7">
@@ -2043,52 +2188,56 @@
         <v>-486521</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" ref="F20:G20" si="26">SUM(F15:F19)</f>
+        <f t="shared" ref="F20:G20" si="27">SUM(F15:F19)</f>
         <v>-582348</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" si="26"/>
-        <v>-626699</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" ref="J20" si="27">SUM(J15:J19)</f>
+        <f t="shared" si="27"/>
+        <v>-629949</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" ref="H20" si="28">SUM(H15:H19)</f>
+        <v>-557937</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" ref="O20" si="29">SUM(O15:O19)</f>
         <v>-151140</v>
       </c>
-      <c r="K20" s="7">
-        <f t="shared" ref="K20:L20" si="28">SUM(K15:K19)</f>
+      <c r="P20" s="7">
+        <f t="shared" ref="P20:Q20" si="30">SUM(P15:P19)</f>
         <v>-183917</v>
       </c>
-      <c r="L20" s="7">
-        <f t="shared" si="28"/>
+      <c r="Q20" s="7">
+        <f t="shared" si="30"/>
         <v>-157054</v>
       </c>
-      <c r="N20" s="7">
-        <f t="shared" ref="N20" si="29">SUM(N15:N19)</f>
+      <c r="S20" s="7">
+        <f t="shared" ref="S20" si="31">SUM(S15:S19)</f>
         <v>-133630</v>
       </c>
-      <c r="O20" s="7">
-        <f t="shared" ref="O20:P20" si="30">SUM(O15:O19)</f>
+      <c r="T20" s="7">
+        <f t="shared" ref="T20:U20" si="32">SUM(T15:T19)</f>
         <v>-140263</v>
       </c>
-      <c r="P20" s="12">
-        <f t="shared" si="30"/>
+      <c r="U20" s="12">
+        <f t="shared" si="32"/>
         <v>-137676</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="8">
         <f>B14+B20</f>
-        <v>-53038</v>
+        <v>119970</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" ref="C21:D21" si="31">C14+C20</f>
+        <f t="shared" ref="C21:D21" si="33">C14+C20</f>
         <v>-45995</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-74099</v>
       </c>
       <c r="E21" s="8">
@@ -2096,45 +2245,49 @@
         <v>-120065</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:G21" si="32">F14+F20</f>
+        <f t="shared" ref="F21:G21" si="34">F14+F20</f>
         <v>-111614</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="32"/>
-        <v>-80733</v>
-      </c>
-      <c r="H21" s="5">
+        <f t="shared" si="34"/>
+        <v>-84288</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" ref="H21" si="35">H14+H20</f>
+        <v>35035</v>
+      </c>
+      <c r="I21" s="5">
         <f>AVERAGE(157000,159000)</f>
         <v>158000</v>
       </c>
-      <c r="J21" s="8">
-        <f t="shared" ref="J21" si="33">J14+J20</f>
+      <c r="O21" s="8">
+        <f t="shared" ref="O21" si="36">O14+O20</f>
         <v>-23965</v>
       </c>
-      <c r="K21" s="8">
-        <f t="shared" ref="K21:L21" si="34">K14+K20</f>
+      <c r="P21" s="8">
+        <f t="shared" ref="P21:Q21" si="37">P14+P20</f>
         <v>-51659</v>
       </c>
-      <c r="L21" s="8">
-        <f t="shared" si="34"/>
+      <c r="Q21" s="8">
+        <f t="shared" si="37"/>
         <v>-16041</v>
       </c>
-      <c r="N21" s="8">
-        <f t="shared" ref="N21" si="35">N14+N20</f>
+      <c r="S21" s="8">
+        <f t="shared" ref="S21" si="38">S14+S20</f>
         <v>10568</v>
       </c>
-      <c r="O21" s="8">
-        <f t="shared" ref="O21:P21" si="36">O14+O20</f>
+      <c r="T21" s="8">
+        <f t="shared" ref="T21:U21" si="39">T14+T20</f>
         <v>6880</v>
       </c>
-      <c r="P21" s="13">
-        <f t="shared" si="36"/>
+      <c r="U21" s="13">
+        <f t="shared" si="39"/>
         <v>13961</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="7">
         <f>3229-4934-336</f>
@@ -2160,45 +2313,49 @@
         <f>10177-64700-14522</f>
         <v>-69045</v>
       </c>
-      <c r="J22" s="7">
+      <c r="H22" s="12">
+        <f>21063-10963-3680-15929</f>
+        <v>-9509</v>
+      </c>
+      <c r="O22" s="7">
         <f>1668-2717-307-594</f>
         <v>-1950</v>
       </c>
-      <c r="K22" s="7">
+      <c r="P22" s="7">
         <f>1787-2773-13268-869</f>
         <v>-15123</v>
       </c>
-      <c r="L22" s="7">
+      <c r="Q22" s="7">
         <f>2545-56515-4518-2082</f>
         <v>-60570</v>
       </c>
-      <c r="N22" s="7">
+      <c r="S22" s="7">
         <f>4720-2670-1435-8925</f>
         <v>-8310</v>
       </c>
-      <c r="O22" s="7">
+      <c r="T22" s="7">
         <f>5221-2673-695-538</f>
         <v>1315</v>
       </c>
-      <c r="P22" s="12">
+      <c r="U22" s="12">
         <f>5571-2837+2811-2952</f>
         <v>2593</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="8">
         <f>B22+B21</f>
-        <v>-55079</v>
+        <v>117929</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:D23" si="37">C22+C21</f>
+        <f t="shared" ref="C23:D23" si="40">C22+C21</f>
         <v>-53803</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-96863</v>
       </c>
       <c r="E23" s="8">
@@ -2206,47 +2363,51 @@
         <v>-135913</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" ref="F23:G23" si="38">F22+F21</f>
+        <f t="shared" ref="F23:G23" si="41">F22+F21</f>
         <v>-122305</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="38"/>
-        <v>-149778</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" ref="J23" si="39">J22+J21</f>
+        <f t="shared" si="41"/>
+        <v>-153333</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" ref="H23" si="42">H22+H21</f>
+        <v>25526</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" ref="O23" si="43">O22+O21</f>
         <v>-25915</v>
       </c>
-      <c r="K23" s="8">
-        <f t="shared" ref="K23:L23" si="40">K22+K21</f>
+      <c r="P23" s="8">
+        <f t="shared" ref="P23:Q23" si="44">P22+P21</f>
         <v>-66782</v>
       </c>
-      <c r="L23" s="8">
-        <f t="shared" si="40"/>
+      <c r="Q23" s="8">
+        <f t="shared" si="44"/>
         <v>-76611</v>
       </c>
-      <c r="N23" s="8">
-        <f t="shared" ref="N23" si="41">N22+N21</f>
+      <c r="S23" s="8">
+        <f t="shared" ref="S23" si="45">S22+S21</f>
         <v>2258</v>
       </c>
-      <c r="O23" s="8">
-        <f t="shared" ref="O23:P23" si="42">O22+O21</f>
+      <c r="T23" s="8">
+        <f t="shared" ref="T23:U23" si="46">T22+T21</f>
         <v>8195</v>
       </c>
-      <c r="P23" s="13">
-        <f t="shared" si="42"/>
+      <c r="U23" s="13">
+        <f t="shared" si="46"/>
         <v>16554</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>-13428</v>
@@ -2267,542 +2428,611 @@
         <v>126661</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="11">
+        <v>104278</v>
+      </c>
+      <c r="H27">
+        <v>171670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28">
+        <f>-3425-14162</f>
+        <v>-17587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <f>6066-12813-3265</f>
         <v>-10012</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <f>-1420-29428-6087</f>
         <v>-36935</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <f>-4887-13802-6130</f>
         <v>-24819</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>35053</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>40677</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G29" s="11">
         <v>84034</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H29">
+        <f>SUM(H27:H28)</f>
+        <v>154083</v>
+      </c>
+      <c r="I29" s="5">
         <f>(145000+155000)/2</f>
         <v>150000</v>
       </c>
-      <c r="J27">
+      <c r="J29">
+        <v>135000</v>
+      </c>
+      <c r="O29">
         <v>-1219</v>
       </c>
-      <c r="K27">
+      <c r="P29">
         <v>25581</v>
       </c>
-      <c r="L27">
+      <c r="Q29">
         <v>-582</v>
       </c>
-      <c r="N27">
+      <c r="S29">
         <v>27534</v>
       </c>
-      <c r="O27">
+      <c r="T29">
         <v>29205</v>
       </c>
-      <c r="P27" s="11">
+      <c r="U29" s="11">
         <v>38502</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C36" s="6">
         <f>C10/B10-1</f>
         <v>0.33944717339025199</v>
       </c>
-      <c r="D34" s="6">
-        <f t="shared" ref="D34:E34" si="43">D10/C10-1</f>
+      <c r="D36" s="6">
+        <f t="shared" ref="D36:E36" si="47">D10/C10-1</f>
         <v>0.25857096104261545</v>
       </c>
-      <c r="E34" s="6">
-        <f t="shared" si="43"/>
+      <c r="E36" s="6">
+        <f t="shared" si="47"/>
         <v>0.30114754815473677</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F36" s="6">
         <f>F10/E10-1</f>
         <v>0.27956272272900473</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G36" s="14">
         <f>G10/F10-1</f>
         <v>0.13520113621269259</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H36" s="14">
         <f>H10/G10-1</f>
+        <v>8.5250614948817471E-2</v>
+      </c>
+      <c r="I36" s="15">
+        <f>I10/G10-1</f>
         <v>8.0098288944293827E-2</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21">
-        <f>N10/J10-1</f>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20">
+        <f>S10/O10-1</f>
         <v>0.1197058534508173</v>
       </c>
-      <c r="O34" s="21">
-        <f t="shared" ref="O34:Q34" si="44">O10/K10-1</f>
+      <c r="T36" s="20">
+        <f t="shared" ref="T36:V36" si="48">T10/P10-1</f>
         <v>9.2263498965455604E-2</v>
       </c>
-      <c r="P34" s="22">
-        <f t="shared" si="44"/>
+      <c r="U36" s="21">
+        <f t="shared" si="48"/>
         <v>7.9514994241688175E-2</v>
       </c>
-      <c r="Q34" s="21" t="e">
-        <f t="shared" si="44"/>
+      <c r="V36" s="20" t="e">
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="6">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="6">
         <f>B8/B10</f>
         <v>0.86358776030251017</v>
       </c>
-      <c r="C35" s="6">
-        <f t="shared" ref="C35:P35" si="45">C8/C10</f>
+      <c r="C37" s="6">
+        <f t="shared" ref="C37:U37" si="49">C8/C10</f>
         <v>0.91114767836988875</v>
       </c>
-      <c r="D35" s="6">
-        <f t="shared" si="45"/>
+      <c r="D37" s="6">
+        <f t="shared" si="49"/>
         <v>0.93058330052541283</v>
       </c>
-      <c r="E35" s="6">
-        <f t="shared" si="45"/>
+      <c r="E37" s="6">
+        <f t="shared" si="49"/>
         <v>0.93544874524658017</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="45"/>
+      <c r="F37" s="6">
+        <f t="shared" si="49"/>
         <v>0.94519204242405663</v>
       </c>
-      <c r="G35" s="14">
-        <f t="shared" si="45"/>
+      <c r="G37" s="14">
+        <f t="shared" si="49"/>
         <v>0.95173117896585735</v>
       </c>
-      <c r="H35" s="15">
-        <f t="shared" si="45"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="15">
+        <f t="shared" si="49"/>
         <v>0.95173117896585735</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6">
-        <f t="shared" si="45"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6">
+        <f t="shared" si="49"/>
         <v>0.94867175472501553</v>
       </c>
-      <c r="K35" s="6">
-        <f t="shared" si="45"/>
+      <c r="P37" s="6">
+        <f t="shared" si="49"/>
         <v>0.95420172038945084</v>
       </c>
-      <c r="L35" s="6">
-        <f t="shared" si="45"/>
+      <c r="Q37" s="6">
+        <f t="shared" si="49"/>
         <v>0.95490412033614458</v>
       </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6">
-        <f t="shared" si="45"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6">
+        <f t="shared" si="49"/>
         <v>0.96010258360515066</v>
       </c>
-      <c r="O35" s="6">
-        <f t="shared" si="45"/>
+      <c r="T37" s="6">
+        <f t="shared" si="49"/>
         <v>0.9619021976912463</v>
       </c>
-      <c r="P35" s="14">
-        <f t="shared" si="45"/>
+      <c r="U37" s="14">
+        <f t="shared" si="49"/>
         <v>0.95778788189365216</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="6">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="6">
         <f>B9/B10</f>
         <v>0.13641223969748986</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" ref="C36:P36" si="46">C9/C10</f>
+      <c r="C38" s="6">
+        <f t="shared" ref="C38:U38" si="50">C9/C10</f>
         <v>8.8852321630111308E-2</v>
       </c>
-      <c r="D36" s="6">
-        <f t="shared" si="46"/>
+      <c r="D38" s="6">
+        <f t="shared" si="50"/>
         <v>6.9416699474587229E-2</v>
       </c>
-      <c r="E36" s="6">
-        <f t="shared" si="46"/>
+      <c r="E38" s="6">
+        <f t="shared" si="50"/>
         <v>6.4551254753419843E-2</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="46"/>
+      <c r="F38" s="6">
+        <f t="shared" si="50"/>
         <v>5.4807957575943353E-2</v>
       </c>
-      <c r="G36" s="14">
-        <f t="shared" si="46"/>
+      <c r="G38" s="14">
+        <f t="shared" si="50"/>
         <v>4.8268821034142678E-2</v>
       </c>
-      <c r="H36" s="15">
-        <f t="shared" si="46"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="15">
+        <f t="shared" si="50"/>
         <v>4.8268821034142685E-2</v>
       </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21">
-        <f t="shared" si="46"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20">
+        <f t="shared" si="50"/>
         <v>5.132824527498444E-2</v>
       </c>
-      <c r="K36" s="21">
-        <f t="shared" si="46"/>
+      <c r="P38" s="20">
+        <f t="shared" si="50"/>
         <v>4.5798279610549199E-2</v>
       </c>
-      <c r="L36" s="21">
-        <f t="shared" si="46"/>
+      <c r="Q38" s="20">
+        <f t="shared" si="50"/>
         <v>4.5095879663855407E-2</v>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21">
-        <f t="shared" si="46"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20">
+        <f t="shared" si="50"/>
         <v>3.9897416394849367E-2</v>
       </c>
-      <c r="O36" s="21">
-        <f t="shared" si="46"/>
+      <c r="T38" s="20">
+        <f t="shared" si="50"/>
         <v>3.8097802308753745E-2</v>
       </c>
-      <c r="P36" s="22">
-        <f t="shared" si="46"/>
+      <c r="U38" s="21">
+        <f t="shared" si="50"/>
         <v>4.2212118106347889E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="6">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="6">
         <f>(B8+B11)/B8</f>
         <v>0.77471844549655111</v>
       </c>
-      <c r="C37" s="6">
-        <f t="shared" ref="C37:D37" si="47">(C8+C11)/C8</f>
+      <c r="C39" s="6">
+        <f t="shared" ref="C39:D39" si="51">(C8+C11)/C8</f>
         <v>0.77113230411853761</v>
       </c>
-      <c r="D37" s="6">
-        <f t="shared" si="47"/>
+      <c r="D39" s="6">
+        <f t="shared" si="51"/>
         <v>0.74703986712698667</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E39" s="6">
         <f>(E8+E11)/E8</f>
         <v>0.71892788758153747</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" ref="F37:H37" si="48">(F8+F11)/F8</f>
+      <c r="F39" s="6">
+        <f t="shared" ref="F39:G39" si="52">(F8+F11)/F8</f>
         <v>0.71860671623927663</v>
       </c>
-      <c r="G37" s="14">
-        <f t="shared" si="48"/>
-        <v>0.72586764085991284</v>
-      </c>
-      <c r="H37"/>
-      <c r="J37" s="6">
-        <f>(J8+J11)/J8</f>
+      <c r="G39" s="14">
+        <f t="shared" si="52"/>
+        <v>0.72554879432777419</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39"/>
+      <c r="O39" s="6">
+        <f>(O8+O11)/O8</f>
         <v>0.72269410491908936</v>
       </c>
-      <c r="K37" s="6">
-        <f t="shared" ref="K37:P37" si="49">(K8+K11)/K8</f>
+      <c r="P39" s="6">
+        <f t="shared" ref="P39:U39" si="53">(P8+P11)/P8</f>
         <v>0.71850457619936048</v>
       </c>
-      <c r="L37" s="6">
-        <f t="shared" si="49"/>
+      <c r="Q39" s="6">
+        <f t="shared" si="53"/>
         <v>0.73002907160462616</v>
       </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6">
-        <f t="shared" si="49"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6">
+        <f t="shared" si="53"/>
         <v>0.7224479224855016</v>
       </c>
-      <c r="O37" s="6">
-        <f t="shared" si="49"/>
+      <c r="T39" s="6">
+        <f t="shared" si="53"/>
         <v>0.72518206400855711</v>
       </c>
-      <c r="P37" s="14">
-        <f t="shared" si="49"/>
+      <c r="U39" s="14">
+        <f t="shared" si="53"/>
         <v>0.72444100723273652</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="6">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="6">
         <f>(B9+B12)/B9</f>
         <v>0.29137760158572845</v>
       </c>
-      <c r="C38" s="6">
-        <f t="shared" ref="C38:D38" si="50">(C9+C12)/C9</f>
+      <c r="C40" s="6">
+        <f t="shared" ref="C40:D40" si="54">(C9+C12)/C9</f>
         <v>0.20939759036144578</v>
       </c>
-      <c r="D38" s="6">
-        <f t="shared" si="50"/>
+      <c r="D40" s="6">
+        <f t="shared" si="54"/>
         <v>0.13692059935583251</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E40" s="6">
         <f>(E9+E12)/E9</f>
         <v>0.18477474610109662</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F40" s="6">
         <f>(F9+F12)/F9</f>
         <v>0.14410887397464578</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G40" s="14">
         <f>(G9+G12)/G9</f>
-        <v>0.23181224859479474</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6">
-        <f>(J9+J12)/J9</f>
-        <v>0.16921931503935334</v>
-      </c>
-      <c r="K38" s="6">
-        <f>(K9+K12)/K9</f>
-        <v>0.19550510262584567</v>
-      </c>
-      <c r="L38" s="6">
-        <f>(L9+L12)/L9</f>
-        <v>0.26742500278800047</v>
-      </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6">
-        <f>(N9+N12)/N9</f>
-        <v>0.23646584382255897</v>
-      </c>
-      <c r="O38" s="6">
-        <f>(O9+O12)/O9</f>
-        <v>0.25971731448763252</v>
-      </c>
-      <c r="P38" s="14">
-        <f>(P9+P12)/P9</f>
-        <v>0.29764926608542103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="6">
-        <f>B14/B10</f>
-        <v>0.70878483844140094</v>
-      </c>
-      <c r="C39" s="6">
-        <f t="shared" ref="C39:D39" si="51">C14/C10</f>
-        <v>0.72122087066099394</v>
-      </c>
-      <c r="D39" s="6">
-        <f t="shared" si="51"/>
-        <v>0.70468740127246132</v>
-      </c>
-      <c r="E39" s="6">
-        <f>E14/E10</f>
-        <v>0.68444763206849402</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" ref="F39:G39" si="52">F14/F10</f>
-        <v>0.68711966287296578</v>
-      </c>
-      <c r="G39" s="14">
-        <f t="shared" si="52"/>
-        <v>0.70202016954971469</v>
-      </c>
-      <c r="H39" s="15">
-        <f>H14/H10</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6">
-        <f>J14/J10</f>
-        <v>0.6942852151506218</v>
-      </c>
-      <c r="K39" s="6">
-        <f>K14/K10</f>
-        <v>0.69455210007247059</v>
-      </c>
-      <c r="L39" s="6">
-        <f>L14/L10</f>
-        <v>0.70916753418526179</v>
-      </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6">
-        <f>N14/N10</f>
-        <v>0.70305849313265167</v>
-      </c>
-      <c r="O39" s="6">
-        <f>O14/O10</f>
-        <v>0.70744887999961537</v>
-      </c>
-      <c r="P39" s="14">
-        <f>P14/P10</f>
-        <v>0.70642522384861217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="6">
-        <f>B21/B10</f>
-        <v>-0.21728781479038556</v>
-      </c>
-      <c r="C40" s="6">
-        <f t="shared" ref="C40:H40" si="53">C21/C10</f>
-        <v>-0.14068029374791632</v>
-      </c>
-      <c r="D40" s="6">
-        <f t="shared" si="53"/>
-        <v>-0.18007660041896931</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="53"/>
-        <v>-0.22425121963974867</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="53"/>
-        <v>-0.16292040526476353</v>
-      </c>
-      <c r="G40" s="14">
-        <f t="shared" si="53"/>
-        <v>-0.10380901804921391</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="53"/>
-        <v>0.18809523809523809</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>0.22997416020671835</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="14"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O40" s="6">
+        <f>(O9+O12)/O9</f>
+        <v>0.16921931503935334</v>
+      </c>
+      <c r="P40" s="6">
+        <f>(P9+P12)/P9</f>
+        <v>0.19550510262584567</v>
+      </c>
+      <c r="Q40" s="6">
+        <f>(Q9+Q12)/Q9</f>
+        <v>0.26742500278800047</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6">
+        <f>(S9+S12)/S9</f>
+        <v>0.23646584382255897</v>
+      </c>
+      <c r="T40" s="6">
+        <f>(T9+T12)/T9</f>
+        <v>0.25971731448763252</v>
+      </c>
+      <c r="U40" s="14">
+        <f>(U9+U12)/U9</f>
+        <v>0.29764926608542103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="B41" s="6">
+        <f>B14/B10</f>
+        <v>0.70878483844140094</v>
       </c>
       <c r="C41" s="6">
-        <f>C21/B21-1</f>
-        <v>-0.13279158339303898</v>
+        <f t="shared" ref="C41:D41" si="55">C14/C10</f>
+        <v>0.72122087066099394</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" ref="D41:E41" si="54">D21/C21-1</f>
-        <v>0.61102293727579093</v>
+        <f t="shared" si="55"/>
+        <v>0.70468740127246132</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="54"/>
-        <v>0.62033225819511739</v>
+        <f>E14/E10</f>
+        <v>0.68444763206849402</v>
       </c>
       <c r="F41" s="6">
-        <f>F21/E21-1</f>
-        <v>-7.0386873776704273E-2</v>
+        <f t="shared" ref="F41:G41" si="56">F14/F10</f>
+        <v>0.68711966287296578</v>
       </c>
       <c r="G41" s="14">
-        <f>G21/F21-1</f>
-        <v>-0.27667676097980543</v>
-      </c>
-      <c r="H41" s="15">
-        <f>H21/G21-1</f>
-        <v>-2.9570683611410451</v>
-      </c>
-      <c r="I41" s="6"/>
+        <f t="shared" si="56"/>
+        <v>0.70162799100432427</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="15">
+        <f>I14/I10</f>
+        <v>0</v>
+      </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="6">
-        <f>(N21-J21)/ABS(J21)</f>
-        <v>1.4409764239515961</v>
-      </c>
+      <c r="N41" s="6"/>
       <c r="O41" s="6">
-        <f t="shared" ref="O41:P41" si="55">(O21-K21)/ABS(K21)</f>
-        <v>1.133181052672332</v>
-      </c>
-      <c r="P41" s="14">
-        <f t="shared" si="55"/>
-        <v>1.8703322735490306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <f>O14/O10</f>
+        <v>0.6942852151506218</v>
+      </c>
+      <c r="P41" s="6">
+        <f>P14/P10</f>
+        <v>0.69455210007247059</v>
+      </c>
+      <c r="Q41" s="6">
+        <f>Q14/Q10</f>
+        <v>0.70916753418526179</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6">
+        <f>S14/S10</f>
+        <v>0.70305849313265167</v>
+      </c>
+      <c r="T41" s="6">
+        <f>T14/T10</f>
+        <v>0.70744887999961537</v>
+      </c>
+      <c r="U41" s="14">
+        <f>U14/U10</f>
+        <v>0.70642522384861217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>105</v>
+      </c>
+      <c r="B42" s="6">
+        <f>B21/B10</f>
+        <v>0.49149702365101539</v>
       </c>
       <c r="C42" s="6">
-        <f>C27/B27-1</f>
-        <v>2.6890731122652816</v>
+        <f t="shared" ref="C42:I42" si="57">C21/C10</f>
+        <v>-0.14068029374791632</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" ref="D42:E42" si="56">D27/C27-1</f>
-        <v>-0.32803573845945577</v>
+        <f t="shared" si="57"/>
+        <v>-0.18007660041896931</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="56"/>
-        <v>-2.4123453805552195</v>
+        <f t="shared" si="57"/>
+        <v>-0.22425121963974867</v>
       </c>
       <c r="F42" s="6">
-        <f>F27/E27-1</f>
-        <v>0.16044275810914899</v>
+        <f t="shared" si="57"/>
+        <v>-0.16292040526476353</v>
       </c>
       <c r="G42" s="14">
-        <f>G27/F27-1</f>
-        <v>1.0658848980996631</v>
-      </c>
-      <c r="H42" s="15">
-        <f>H27/G27-1</f>
-        <v>0.78499178903777045</v>
-      </c>
+        <f t="shared" si="57"/>
+        <v>-0.10838014830778173</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="6">
+        <f t="shared" si="57"/>
+        <v>0.18809523809523809</v>
+      </c>
+      <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="6">
-        <f>(N27-J27)/ABS(J27)</f>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="14"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="6">
+        <f>C21/B21-1</f>
+        <v>-1.3833875135450528</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" ref="D43:E43" si="58">D21/C21-1</f>
+        <v>0.61102293727579093</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="58"/>
+        <v>0.62033225819511739</v>
+      </c>
+      <c r="F43" s="6">
+        <f>F21/E21-1</f>
+        <v>-7.0386873776704273E-2</v>
+      </c>
+      <c r="G43" s="14">
+        <f>G21/F21-1</f>
+        <v>-0.24482591789560448</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="15">
+        <f>I21/G21-1</f>
+        <v>-2.8745254365983293</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6">
+        <f>(S21-O21)/ABS(O21)</f>
+        <v>1.4409764239515961</v>
+      </c>
+      <c r="T43" s="6">
+        <f t="shared" ref="T43:U43" si="59">(T21-P21)/ABS(P21)</f>
+        <v>1.133181052672332</v>
+      </c>
+      <c r="U43" s="14">
+        <f t="shared" si="59"/>
+        <v>1.8703322735490306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="6">
+        <f>C29/B29-1</f>
+        <v>2.6890731122652816</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" ref="D44:E44" si="60">D29/C29-1</f>
+        <v>-0.32803573845945577</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="60"/>
+        <v>-2.4123453805552195</v>
+      </c>
+      <c r="F44" s="6">
+        <f>F29/E29-1</f>
+        <v>0.16044275810914899</v>
+      </c>
+      <c r="G44" s="14">
+        <f>G29/F29-1</f>
+        <v>1.0658848980996631</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="15">
+        <f>I29/G29-1</f>
+        <v>0.78499178903777045</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6">
+        <f>(S29-O29)/ABS(O29)</f>
         <v>23.587366694011486</v>
       </c>
-      <c r="O42" s="6">
-        <f t="shared" ref="O42:P42" si="57">(O27-K27)/ABS(K27)</f>
+      <c r="T44" s="6">
+        <f t="shared" ref="T44:U44" si="61">(T29-P29)/ABS(P29)</f>
         <v>0.14166764395449749</v>
       </c>
-      <c r="P42" s="14">
-        <f t="shared" si="57"/>
+      <c r="U44" s="14">
+        <f t="shared" si="61"/>
         <v>67.154639175257728</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>